--- a/BackTest/2020-01-14 BackTest ETH.xlsx
+++ b/BackTest/2020-01-14 BackTest ETH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -4147,7 +4147,7 @@
         <v>367.1964145446712</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>317.1627114330176</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>320.5598114330177</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>320.5598114330177</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>313.5598114330177</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>313.5598114330177</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>313.5598114330177</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>313.5598114330177</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>313.5598114330177</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>313.5598114330177</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>313.5598114330177</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>313.9437114330177</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>310.1674114330177</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>310.1674114330177</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>310.1674114330177</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>310.1674114330177</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>310.1674114330177</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>493.0501114330177</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>486.6694114330177</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>502.8676114330177</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>502.8676114330177</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>501.8658114330177</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>501.8658114330177</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>501.8658114330177</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>501.8658114330177</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>501.8658114330177</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>793.8846463082459</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>793.5867463082459</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>770.1884515457612</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>770.1915515457612</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>766.4292515457612</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>766.4292515457612</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>766.4292515457612</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>773.5933515457612</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>772.7731515457612</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>767.3242515457612</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>767.9134515457612</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>767.9134515457612</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>759.0990515457612</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>759.0990515457612</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>755.6598515457612</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>755.6598515457612</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>755.6598515457612</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>754.3571515457612</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>754.3571515457612</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>754.3571515457612</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>754.3571515457612</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>759.8669515457613</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>884.3787515457612</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>820.2218515457613</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>1078.954251545761</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>1078.954251545761</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>1078.954251545761</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>1078.954251545761</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>1063.325996457401</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>1128.025996457401</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>1104.184196457401</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>1107.708296457401</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>1107.674996457401</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>1117.679196457401</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>1117.585596457401</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>1117.585596457401</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>1117.731896457401</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>1117.731896457401</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>1514.583196457401</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>1514.583196457401</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>1651.683196457401</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>2018.862596457401</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>2339.475596457401</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>2339.475596457401</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>2291.134496457401</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>2215.545196457401</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>2154.099296457401</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>2154.099296457401</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>2044.925296457401</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>2107.1452964574</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>2107.1452964574</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>2107.1452964574</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>2175.677496457401</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>2192.008696457401</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>2158.247496457401</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>2256.791096457401</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>2266.065596457401</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>2265.690496457401</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>2257.847496457401</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>2267.281696457401</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>2266.281696457401</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>2266.281696457401</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>2266.281696457401</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>2223.465910821369</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>2207.965910821369</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>2201.941210821369</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>2206.546210821369</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>2171.105010821369</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>2147.530510821369</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>2096.267110821369</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>2055.189010821369</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>2067.560110821369</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>2067.560110821369</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>2061.450510821369</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>2061.450510821369</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>2111.283410821369</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>2106.906510821369</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>2106.906510821369</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>2107.997510821369</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>2085.265510821369</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>2089.746910821369</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>2169.945248673077</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>2169.945248673077</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>2169.445248673077</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>2166.367348673077</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>2167.585873337302</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>2102.472373337302</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>2118.108673337302</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>2103.804464601811</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>2103.804464601811</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>2099.850564601811</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>2119.588564601811</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>2117.37556460181</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>2133.26816460181</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>2133.26816460181</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>2133.26816460181</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>2125.131255866318</v>
       </c>
       <c r="H368" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>2131.684855866319</v>
       </c>
       <c r="H369" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>2131.684855866319</v>
       </c>
       <c r="H370" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>2131.684855866319</v>
       </c>
       <c r="H371" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>2131.684855866319</v>
       </c>
       <c r="H372" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>2131.684855866319</v>
       </c>
       <c r="H373" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>2131.684855866319</v>
       </c>
       <c r="H374" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>2131.684855866319</v>
       </c>
       <c r="H375" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>2155.729955866319</v>
       </c>
       <c r="H376" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>2155.729955866319</v>
       </c>
       <c r="H377" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>2158.887103068265</v>
       </c>
       <c r="H378" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>2158.653103068265</v>
       </c>
       <c r="H379" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>2144.017203068265</v>
       </c>
       <c r="H380" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>2144.017203068265</v>
       </c>
       <c r="H381" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>2157.834403068265</v>
       </c>
       <c r="H382" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>2159.946203068265</v>
       </c>
       <c r="H383" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>1967.245903068265</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>1967.245903068265</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>1967.245903068265</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>2053.786403068265</v>
       </c>
       <c r="H387" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>2424.636570562743</v>
       </c>
       <c r="H388" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>2381.935870562743</v>
       </c>
       <c r="H389" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>2422.875870562743</v>
       </c>
       <c r="H390" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>2417.931270562744</v>
       </c>
       <c r="H391" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>2417.931270562744</v>
       </c>
       <c r="H392" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>2417.931270562744</v>
       </c>
       <c r="H393" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>2407.798970562743</v>
       </c>
       <c r="H394" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>2408.185870562743</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>2161.173170562744</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>2147.070768000206</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>2053.909868000206</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>2053.909868000206</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>2066.125968000206</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>2057.893168000206</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>2057.893168000206</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>2057.893168000206</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>2050.812868000206</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>1955.677368000206</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>1924.115068000206</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>1256.641513515764</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>1126.233213515764</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>365.479013515764</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>-2778.625661640002</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -19360,10 +19360,14 @@
         <v>-3811.709765386347</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
-      </c>
-      <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I575" t="n">
+        <v>161700</v>
+      </c>
+      <c r="J575" t="n">
+        <v>161700</v>
+      </c>
       <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
@@ -19393,11 +19397,19 @@
         <v>-3813.485665386347</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
-      </c>
-      <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I576" t="n">
+        <v>161700</v>
+      </c>
+      <c r="J576" t="n">
+        <v>161700</v>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19426,11 +19438,19 @@
         <v>-3807.989965386347</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
-      </c>
-      <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I577" t="n">
+        <v>161500</v>
+      </c>
+      <c r="J577" t="n">
+        <v>161700</v>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19459,10 +19479,14 @@
         <v>-3807.989965386347</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
-      </c>
-      <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I578" t="n">
+        <v>161700</v>
+      </c>
+      <c r="J578" t="n">
+        <v>161700</v>
+      </c>
       <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
@@ -19492,11 +19516,19 @@
         <v>-3807.989965386347</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
-      </c>
-      <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I579" t="n">
+        <v>161700</v>
+      </c>
+      <c r="J579" t="n">
+        <v>161700</v>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -19525,11 +19557,19 @@
         <v>-3807.989965386347</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
-      </c>
-      <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I580" t="n">
+        <v>161700</v>
+      </c>
+      <c r="J580" t="n">
+        <v>161700</v>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -19558,11 +19598,19 @@
         <v>-3812.001665386347</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
-      </c>
-      <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I581" t="n">
+        <v>161700</v>
+      </c>
+      <c r="J581" t="n">
+        <v>161700</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -19591,11 +19639,19 @@
         <v>-3777.695065386347</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
-      </c>
-      <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I582" t="n">
+        <v>161500</v>
+      </c>
+      <c r="J582" t="n">
+        <v>161700</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -19624,11 +19680,19 @@
         <v>-3797.528465386347</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
-      </c>
-      <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I583" t="n">
+        <v>161700</v>
+      </c>
+      <c r="J583" t="n">
+        <v>161700</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -19657,11 +19721,19 @@
         <v>-3815.801265386347</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
-      </c>
-      <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I584" t="n">
+        <v>161400</v>
+      </c>
+      <c r="J584" t="n">
+        <v>161700</v>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -19690,11 +19762,19 @@
         <v>-3815.801265386347</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
-      </c>
-      <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I585" t="n">
+        <v>161200</v>
+      </c>
+      <c r="J585" t="n">
+        <v>161700</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -19723,11 +19803,19 @@
         <v>-3839.955865386347</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
-      </c>
-      <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I586" t="n">
+        <v>161200</v>
+      </c>
+      <c r="J586" t="n">
+        <v>161700</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -19756,11 +19844,19 @@
         <v>-3839.955865386347</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
-      </c>
-      <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I587" t="n">
+        <v>161100</v>
+      </c>
+      <c r="J587" t="n">
+        <v>161700</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -19789,11 +19885,19 @@
         <v>-3839.955865386347</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
-      </c>
-      <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I588" t="n">
+        <v>161100</v>
+      </c>
+      <c r="J588" t="n">
+        <v>161700</v>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -19822,15 +19926,19 @@
         <v>-3839.190365386347</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I589" t="n">
         <v>161100</v>
       </c>
       <c r="J589" t="n">
-        <v>161100</v>
-      </c>
-      <c r="K589" t="inlineStr"/>
+        <v>161700</v>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -19859,17 +19967,17 @@
         <v>-3839.190365386347</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I590" t="n">
         <v>161200</v>
       </c>
       <c r="J590" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K590" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L590" t="n">
@@ -19900,13 +20008,13 @@
         <v>-3839.190365386347</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I591" t="n">
         <v>161200</v>
       </c>
       <c r="J591" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K591" t="inlineStr">
         <is>
@@ -19941,11 +20049,13 @@
         <v>-3839.190365386347</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
-      </c>
-      <c r="I592" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I592" t="n">
+        <v>161200</v>
+      </c>
       <c r="J592" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K592" t="inlineStr">
         <is>
@@ -19980,11 +20090,13 @@
         <v>-3839.190365386347</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
-      </c>
-      <c r="I593" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I593" t="n">
+        <v>161200</v>
+      </c>
       <c r="J593" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K593" t="inlineStr">
         <is>
@@ -20019,11 +20131,13 @@
         <v>-3839.190365386347</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
-      </c>
-      <c r="I594" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I594" t="n">
+        <v>161200</v>
+      </c>
       <c r="J594" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K594" t="inlineStr">
         <is>
@@ -20058,11 +20172,13 @@
         <v>-3932.064265386347</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
-      </c>
-      <c r="I595" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I595" t="n">
+        <v>161200</v>
+      </c>
       <c r="J595" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K595" t="inlineStr">
         <is>
@@ -20097,13 +20213,13 @@
         <v>-3820.674365386347</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I596" t="n">
         <v>161100</v>
       </c>
       <c r="J596" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K596" t="inlineStr">
         <is>
@@ -20138,11 +20254,13 @@
         <v>-3820.674365386347</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
-      </c>
-      <c r="I597" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I597" t="n">
+        <v>161200</v>
+      </c>
       <c r="J597" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K597" t="inlineStr">
         <is>
@@ -20177,13 +20295,13 @@
         <v>-3820.674365386347</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I598" t="n">
         <v>161200</v>
       </c>
       <c r="J598" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K598" t="inlineStr">
         <is>
@@ -20218,13 +20336,13 @@
         <v>-3820.674365386347</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I599" t="n">
         <v>161200</v>
       </c>
       <c r="J599" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K599" t="inlineStr">
         <is>
@@ -20259,13 +20377,13 @@
         <v>-3820.674365386347</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I600" t="n">
         <v>161200</v>
       </c>
       <c r="J600" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K600" t="inlineStr">
         <is>
@@ -20300,13 +20418,13 @@
         <v>-3861.233465386347</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I601" t="n">
         <v>161200</v>
       </c>
       <c r="J601" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K601" t="inlineStr">
         <is>
@@ -20341,13 +20459,13 @@
         <v>-3681.709365386347</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I602" t="n">
         <v>161100</v>
       </c>
       <c r="J602" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K602" t="inlineStr">
         <is>
@@ -20382,13 +20500,13 @@
         <v>-3670.436065386347</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I603" t="n">
         <v>161300</v>
       </c>
       <c r="J603" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K603" t="inlineStr">
         <is>
@@ -20423,13 +20541,13 @@
         <v>-3710.868865386347</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I604" t="n">
         <v>161400</v>
       </c>
       <c r="J604" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K604" t="inlineStr">
         <is>
@@ -20464,13 +20582,13 @@
         <v>-3697.950765386347</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I605" t="n">
         <v>161200</v>
       </c>
       <c r="J605" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K605" t="inlineStr">
         <is>
@@ -20505,13 +20623,13 @@
         <v>-3716.249465386347</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I606" t="n">
         <v>161500</v>
       </c>
       <c r="J606" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K606" t="inlineStr">
         <is>
@@ -20546,13 +20664,13 @@
         <v>-3716.249465386347</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I607" t="n">
         <v>161400</v>
       </c>
       <c r="J607" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K607" t="inlineStr">
         <is>
@@ -20587,13 +20705,13 @@
         <v>-3716.249465386347</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I608" t="n">
         <v>161400</v>
       </c>
       <c r="J608" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K608" t="inlineStr">
         <is>
@@ -20628,13 +20746,13 @@
         <v>-3551.808788310759</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I609" t="n">
         <v>161400</v>
       </c>
       <c r="J609" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K609" t="inlineStr">
         <is>
@@ -20669,11 +20787,13 @@
         <v>-3551.808788310759</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
-      </c>
-      <c r="I610" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I610" t="n">
+        <v>161700</v>
+      </c>
       <c r="J610" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K610" t="inlineStr">
         <is>
@@ -20708,11 +20828,13 @@
         <v>-3527.598788310759</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
-      </c>
-      <c r="I611" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I611" t="n">
+        <v>161700</v>
+      </c>
       <c r="J611" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K611" t="inlineStr">
         <is>
@@ -20747,11 +20869,13 @@
         <v>-3416.763288310759</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
-      </c>
-      <c r="I612" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I612" t="n">
+        <v>161800</v>
+      </c>
       <c r="J612" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K612" t="inlineStr">
         <is>
@@ -20790,7 +20914,7 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K613" t="inlineStr">
         <is>
@@ -20829,7 +20953,7 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K614" t="inlineStr">
         <is>
@@ -20868,7 +20992,7 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K615" t="inlineStr">
         <is>
@@ -20907,7 +21031,7 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K616" t="inlineStr">
         <is>
@@ -20946,7 +21070,7 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K617" t="inlineStr">
         <is>
@@ -20985,7 +21109,7 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K618" t="inlineStr">
         <is>
@@ -21024,7 +21148,7 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K619" t="inlineStr">
         <is>
@@ -21063,7 +21187,7 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K620" t="inlineStr">
         <is>
@@ -21102,7 +21226,7 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K621" t="inlineStr">
         <is>
@@ -21141,7 +21265,7 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K622" t="inlineStr">
         <is>
@@ -21180,7 +21304,7 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K623" t="inlineStr">
         <is>
@@ -21219,7 +21343,7 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K624" t="inlineStr">
         <is>
@@ -21258,7 +21382,7 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K625" t="inlineStr">
         <is>
@@ -21297,7 +21421,7 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K626" t="inlineStr">
         <is>
@@ -21336,7 +21460,7 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K627" t="inlineStr">
         <is>
@@ -21375,7 +21499,7 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K628" t="inlineStr">
         <is>
@@ -21414,7 +21538,7 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K629" t="inlineStr">
         <is>
@@ -21453,7 +21577,7 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K630" t="inlineStr">
         <is>
@@ -21492,7 +21616,7 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K631" t="inlineStr">
         <is>
@@ -21531,7 +21655,7 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K632" t="inlineStr">
         <is>
@@ -21570,7 +21694,7 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K633" t="inlineStr">
         <is>
@@ -21609,7 +21733,7 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K634" t="inlineStr">
         <is>
@@ -21644,11 +21768,13 @@
         <v>-3309.542488310758</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
-      </c>
-      <c r="I635" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I635" t="n">
+        <v>161700</v>
+      </c>
       <c r="J635" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K635" t="inlineStr">
         <is>
@@ -21683,11 +21809,13 @@
         <v>-3313.744688310759</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
-      </c>
-      <c r="I636" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I636" t="n">
+        <v>161900</v>
+      </c>
       <c r="J636" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K636" t="inlineStr">
         <is>
@@ -21722,11 +21850,13 @@
         <v>-3268.129888310759</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
-      </c>
-      <c r="I637" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I637" t="n">
+        <v>161800</v>
+      </c>
       <c r="J637" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K637" t="inlineStr">
         <is>
@@ -21761,11 +21891,13 @@
         <v>-3268.129888310759</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
-      </c>
-      <c r="I638" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I638" t="n">
+        <v>161900</v>
+      </c>
       <c r="J638" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K638" t="inlineStr">
         <is>
@@ -21800,11 +21932,13 @@
         <v>-3268.251888310759</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
-      </c>
-      <c r="I639" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I639" t="n">
+        <v>161900</v>
+      </c>
       <c r="J639" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K639" t="inlineStr">
         <is>
@@ -21839,11 +21973,13 @@
         <v>-3268.151888310759</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
-      </c>
-      <c r="I640" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I640" t="n">
+        <v>161600</v>
+      </c>
       <c r="J640" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K640" t="inlineStr">
         <is>
@@ -21878,11 +22014,13 @@
         <v>-3271.887488310759</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
-      </c>
-      <c r="I641" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I641" t="n">
+        <v>161700</v>
+      </c>
       <c r="J641" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K641" t="inlineStr">
         <is>
@@ -21917,11 +22055,13 @@
         <v>-3271.887488310759</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
-      </c>
-      <c r="I642" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I642" t="n">
+        <v>161600</v>
+      </c>
       <c r="J642" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K642" t="inlineStr">
         <is>
@@ -21956,11 +22096,13 @@
         <v>-3271.887488310759</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
-      </c>
-      <c r="I643" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I643" t="n">
+        <v>161600</v>
+      </c>
       <c r="J643" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K643" t="inlineStr">
         <is>
@@ -21995,11 +22137,13 @@
         <v>-3271.863688310759</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
-      </c>
-      <c r="I644" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I644" t="n">
+        <v>161600</v>
+      </c>
       <c r="J644" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K644" t="inlineStr">
         <is>
@@ -22034,11 +22178,13 @@
         <v>-3306.552588310759</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
-      </c>
-      <c r="I645" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I645" t="n">
+        <v>161700</v>
+      </c>
       <c r="J645" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K645" t="inlineStr">
         <is>
@@ -22073,11 +22219,13 @@
         <v>-3299.205088310759</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
-      </c>
-      <c r="I646" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I646" t="n">
+        <v>161600</v>
+      </c>
       <c r="J646" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K646" t="inlineStr">
         <is>
@@ -22112,11 +22260,13 @@
         <v>-3369.195088310759</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
-      </c>
-      <c r="I647" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I647" t="n">
+        <v>161700</v>
+      </c>
       <c r="J647" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K647" t="inlineStr">
         <is>
@@ -22151,11 +22301,13 @@
         <v>-3369.185788310759</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
-      </c>
-      <c r="I648" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I648" t="n">
+        <v>161500</v>
+      </c>
       <c r="J648" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K648" t="inlineStr">
         <is>
@@ -22190,11 +22342,13 @@
         <v>-3369.185788310759</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
-      </c>
-      <c r="I649" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I649" t="n">
+        <v>161600</v>
+      </c>
       <c r="J649" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K649" t="inlineStr">
         <is>
@@ -22229,11 +22383,13 @@
         <v>-3355.734188310759</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
-      </c>
-      <c r="I650" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I650" t="n">
+        <v>161600</v>
+      </c>
       <c r="J650" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K650" t="inlineStr">
         <is>
@@ -22268,11 +22424,13 @@
         <v>-3359.950088310759</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
-      </c>
-      <c r="I651" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I651" t="n">
+        <v>161700</v>
+      </c>
       <c r="J651" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K651" t="inlineStr">
         <is>
@@ -22307,11 +22465,13 @@
         <v>-3359.950088310759</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
-      </c>
-      <c r="I652" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I652" t="n">
+        <v>161500</v>
+      </c>
       <c r="J652" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K652" t="inlineStr">
         <is>
@@ -22346,11 +22506,13 @@
         <v>-3359.950088310759</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
-      </c>
-      <c r="I653" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I653" t="n">
+        <v>161500</v>
+      </c>
       <c r="J653" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K653" t="inlineStr">
         <is>
@@ -22385,11 +22547,13 @@
         <v>-3398.547888310759</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
-      </c>
-      <c r="I654" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I654" t="n">
+        <v>161500</v>
+      </c>
       <c r="J654" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K654" t="inlineStr">
         <is>
@@ -22424,11 +22588,13 @@
         <v>-3408.457188310759</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
-      </c>
-      <c r="I655" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I655" t="n">
+        <v>161400</v>
+      </c>
       <c r="J655" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K655" t="inlineStr">
         <is>
@@ -22463,11 +22629,13 @@
         <v>-3411.475088310759</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
-      </c>
-      <c r="I656" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I656" t="n">
+        <v>161200</v>
+      </c>
       <c r="J656" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K656" t="inlineStr">
         <is>
@@ -22502,11 +22670,13 @@
         <v>-3282.735088310758</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
-      </c>
-      <c r="I657" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I657" t="n">
+        <v>161100</v>
+      </c>
       <c r="J657" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K657" t="inlineStr">
         <is>
@@ -22541,11 +22711,13 @@
         <v>-3334.426088310758</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
-      </c>
-      <c r="I658" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I658" t="n">
+        <v>161500</v>
+      </c>
       <c r="J658" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K658" t="inlineStr">
         <is>
@@ -22580,11 +22752,13 @@
         <v>-3508.877088310758</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
-      </c>
-      <c r="I659" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I659" t="n">
+        <v>161400</v>
+      </c>
       <c r="J659" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K659" t="inlineStr">
         <is>
@@ -22619,11 +22793,13 @@
         <v>-3514.836988310758</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
-      </c>
-      <c r="I660" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I660" t="n">
+        <v>161100</v>
+      </c>
       <c r="J660" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K660" t="inlineStr">
         <is>
@@ -22658,11 +22834,13 @@
         <v>-3514.836988310758</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
-      </c>
-      <c r="I661" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I661" t="n">
+        <v>161000</v>
+      </c>
       <c r="J661" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K661" t="inlineStr">
         <is>
@@ -22697,13 +22875,13 @@
         <v>-3498.665788310758</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I662" t="n">
         <v>161000</v>
       </c>
       <c r="J662" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K662" t="inlineStr">
         <is>
@@ -22738,13 +22916,13 @@
         <v>-3483.958588310758</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I663" t="n">
         <v>161100</v>
       </c>
       <c r="J663" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K663" t="inlineStr">
         <is>
@@ -22779,13 +22957,13 @@
         <v>-3510.951988310758</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I664" t="n">
         <v>161200</v>
       </c>
       <c r="J664" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K664" t="inlineStr">
         <is>
@@ -22820,13 +22998,13 @@
         <v>-3482.460688310758</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I665" t="n">
         <v>161000</v>
       </c>
       <c r="J665" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K665" t="inlineStr">
         <is>
@@ -22861,13 +23039,13 @@
         <v>-3516.175988310758</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I666" t="n">
         <v>161100</v>
       </c>
       <c r="J666" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K666" t="inlineStr">
         <is>
@@ -22902,13 +23080,13 @@
         <v>-3494.285388310758</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I667" t="n">
         <v>160900</v>
       </c>
       <c r="J667" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K667" t="inlineStr">
         <is>
@@ -22943,13 +23121,13 @@
         <v>-3459.138488310758</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I668" t="n">
         <v>161100</v>
       </c>
       <c r="J668" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K668" t="inlineStr">
         <is>
@@ -22984,13 +23162,13 @@
         <v>-3459.193488310757</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I669" t="n">
         <v>161200</v>
       </c>
       <c r="J669" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K669" t="inlineStr">
         <is>
@@ -23025,13 +23203,13 @@
         <v>-3281.863488310757</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I670" t="n">
         <v>161100</v>
       </c>
       <c r="J670" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K670" t="inlineStr">
         <is>
@@ -23066,13 +23244,13 @@
         <v>-3257.278988310758</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I671" t="n">
         <v>161200</v>
       </c>
       <c r="J671" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K671" t="inlineStr">
         <is>
@@ -23107,13 +23285,13 @@
         <v>-3257.278988310758</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I672" t="n">
         <v>161400</v>
       </c>
       <c r="J672" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K672" t="inlineStr">
         <is>
@@ -23148,13 +23326,13 @@
         <v>-3244.248988310757</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I673" t="n">
         <v>161400</v>
       </c>
       <c r="J673" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K673" t="inlineStr">
         <is>
@@ -23189,13 +23367,13 @@
         <v>-3203.709582370163</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I674" t="n">
         <v>161600</v>
       </c>
       <c r="J674" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K674" t="inlineStr">
         <is>
@@ -23230,11 +23408,13 @@
         <v>-3203.709582370163</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
-      </c>
-      <c r="I675" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I675" t="n">
+        <v>161700</v>
+      </c>
       <c r="J675" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K675" t="inlineStr">
         <is>
@@ -23269,13 +23449,13 @@
         <v>-3215.049582370164</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I676" t="n">
         <v>161700</v>
       </c>
       <c r="J676" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K676" t="inlineStr">
         <is>
@@ -23314,7 +23494,7 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K677" t="inlineStr">
         <is>
@@ -23353,7 +23533,7 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K678" t="inlineStr">
         <is>
@@ -23392,7 +23572,7 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K679" t="inlineStr">
         <is>
@@ -23431,7 +23611,7 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K680" t="inlineStr">
         <is>
@@ -23466,11 +23646,13 @@
         <v>-3191.367582370164</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
-      </c>
-      <c r="I681" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I681" t="n">
+        <v>161500</v>
+      </c>
       <c r="J681" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K681" t="inlineStr">
         <is>
@@ -23509,7 +23691,7 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K682" t="inlineStr">
         <is>
@@ -23548,7 +23730,7 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K683" t="inlineStr">
         <is>
@@ -23587,7 +23769,7 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K684" t="inlineStr">
         <is>
@@ -23626,7 +23808,7 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K685" t="inlineStr">
         <is>
@@ -23665,7 +23847,7 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K686" t="inlineStr">
         <is>
@@ -23704,7 +23886,7 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K687" t="inlineStr">
         <is>
@@ -23743,7 +23925,7 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K688" t="inlineStr">
         <is>
@@ -23782,7 +23964,7 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K689" t="inlineStr">
         <is>
@@ -23821,7 +24003,7 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K690" t="inlineStr">
         <is>
@@ -23860,7 +24042,7 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K691" t="inlineStr">
         <is>
@@ -23899,7 +24081,7 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K692" t="inlineStr">
         <is>
@@ -23938,7 +24120,7 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K693" t="inlineStr">
         <is>
@@ -23977,7 +24159,7 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K694" t="inlineStr">
         <is>
@@ -24016,7 +24198,7 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K695" t="inlineStr">
         <is>
@@ -24055,7 +24237,7 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K696" t="inlineStr">
         <is>
@@ -24094,7 +24276,7 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K697" t="inlineStr">
         <is>
@@ -24133,7 +24315,7 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K698" t="inlineStr">
         <is>
@@ -24172,7 +24354,7 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K699" t="inlineStr">
         <is>
@@ -24211,7 +24393,7 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K700" t="inlineStr">
         <is>
@@ -24250,7 +24432,7 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K701" t="inlineStr">
         <is>
@@ -24289,7 +24471,7 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K702" t="inlineStr">
         <is>
@@ -24328,7 +24510,7 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K703" t="inlineStr">
         <is>
@@ -24367,7 +24549,7 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K704" t="inlineStr">
         <is>
@@ -24406,7 +24588,7 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K705" t="inlineStr">
         <is>
@@ -24445,7 +24627,7 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K706" t="inlineStr">
         <is>
@@ -24484,7 +24666,7 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K707" t="inlineStr">
         <is>
@@ -24523,7 +24705,7 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K708" t="inlineStr">
         <is>
@@ -24562,7 +24744,7 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K709" t="inlineStr">
         <is>
@@ -24601,7 +24783,7 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K710" t="inlineStr">
         <is>
@@ -24640,7 +24822,7 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K711" t="inlineStr">
         <is>
@@ -24679,7 +24861,7 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K712" t="inlineStr">
         <is>
@@ -24718,7 +24900,7 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K713" t="inlineStr">
         <is>
@@ -24757,7 +24939,7 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K714" t="inlineStr">
         <is>
@@ -24792,11 +24974,13 @@
         <v>-2907.488282370162</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
-      </c>
-      <c r="I715" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I715" t="n">
+        <v>161600</v>
+      </c>
       <c r="J715" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K715" t="inlineStr">
         <is>
@@ -24831,11 +25015,13 @@
         <v>-2907.488282370162</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
-      </c>
-      <c r="I716" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I716" t="n">
+        <v>161800</v>
+      </c>
       <c r="J716" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K716" t="inlineStr">
         <is>
@@ -24870,11 +25056,13 @@
         <v>-3030.461882370162</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
-      </c>
-      <c r="I717" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I717" t="n">
+        <v>161800</v>
+      </c>
       <c r="J717" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K717" t="inlineStr">
         <is>
@@ -24909,11 +25097,13 @@
         <v>-3030.461882370162</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
-      </c>
-      <c r="I718" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I718" t="n">
+        <v>161600</v>
+      </c>
       <c r="J718" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K718" t="inlineStr">
         <is>
@@ -24948,11 +25138,13 @@
         <v>-3030.148982370162</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
-      </c>
-      <c r="I719" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I719" t="n">
+        <v>161600</v>
+      </c>
       <c r="J719" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K719" t="inlineStr">
         <is>
@@ -24991,7 +25183,7 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K720" t="inlineStr">
         <is>
@@ -25030,7 +25222,7 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K721" t="inlineStr">
         <is>
@@ -25069,7 +25261,7 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K722" t="inlineStr">
         <is>
@@ -25108,7 +25300,7 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K723" t="inlineStr">
         <is>
@@ -25147,7 +25339,7 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K724" t="inlineStr">
         <is>
@@ -25186,7 +25378,7 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K725" t="inlineStr">
         <is>
@@ -25225,7 +25417,7 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K726" t="inlineStr">
         <is>
@@ -25264,7 +25456,7 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K727" t="inlineStr">
         <is>
@@ -25303,7 +25495,7 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K728" t="inlineStr">
         <is>
@@ -25342,7 +25534,7 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K729" t="inlineStr">
         <is>
@@ -25381,7 +25573,7 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K730" t="inlineStr">
         <is>
@@ -25420,7 +25612,7 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K731" t="inlineStr">
         <is>
@@ -25459,7 +25651,7 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K732" t="inlineStr">
         <is>
@@ -25498,7 +25690,7 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K733" t="inlineStr">
         <is>
@@ -25537,7 +25729,7 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K734" t="inlineStr">
         <is>
@@ -25576,7 +25768,7 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K735" t="inlineStr">
         <is>
@@ -25615,7 +25807,7 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K736" t="inlineStr">
         <is>
@@ -25654,7 +25846,7 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K737" t="inlineStr">
         <is>
@@ -25693,7 +25885,7 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K738" t="inlineStr">
         <is>
@@ -25732,7 +25924,7 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K739" t="inlineStr">
         <is>
@@ -25771,7 +25963,7 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K740" t="inlineStr">
         <is>
@@ -25810,7 +26002,7 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K741" t="inlineStr">
         <is>
@@ -25849,7 +26041,7 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K742" t="inlineStr">
         <is>
@@ -25888,7 +26080,7 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K743" t="inlineStr">
         <is>
@@ -25927,7 +26119,7 @@
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K744" t="inlineStr">
         <is>
@@ -25966,7 +26158,7 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K745" t="inlineStr">
         <is>
@@ -26005,7 +26197,7 @@
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K746" t="inlineStr">
         <is>
@@ -26044,7 +26236,7 @@
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K747" t="inlineStr">
         <is>
@@ -26083,7 +26275,7 @@
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K748" t="inlineStr">
         <is>
@@ -26122,7 +26314,7 @@
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K749" t="inlineStr">
         <is>
@@ -26161,7 +26353,7 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K750" t="inlineStr">
         <is>
@@ -26200,7 +26392,7 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K751" t="inlineStr">
         <is>
@@ -26239,7 +26431,7 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K752" t="inlineStr">
         <is>
@@ -26278,7 +26470,7 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K753" t="inlineStr">
         <is>
@@ -26317,7 +26509,7 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K754" t="inlineStr">
         <is>
@@ -26356,7 +26548,7 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K755" t="inlineStr">
         <is>
@@ -26395,7 +26587,7 @@
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K756" t="inlineStr">
         <is>
@@ -26434,7 +26626,7 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K757" t="inlineStr">
         <is>
@@ -26473,7 +26665,7 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K758" t="inlineStr">
         <is>
@@ -26512,7 +26704,7 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K759" t="inlineStr">
         <is>
@@ -26551,7 +26743,7 @@
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K760" t="inlineStr">
         <is>
@@ -26590,7 +26782,7 @@
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K761" t="inlineStr">
         <is>
@@ -26629,7 +26821,7 @@
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K762" t="inlineStr">
         <is>
@@ -26668,7 +26860,7 @@
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K763" t="inlineStr">
         <is>
@@ -26707,7 +26899,7 @@
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K764" t="inlineStr">
         <is>
@@ -26746,7 +26938,7 @@
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K765" t="inlineStr">
         <is>
@@ -26785,7 +26977,7 @@
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K766" t="inlineStr">
         <is>
@@ -26824,7 +27016,7 @@
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K767" t="inlineStr">
         <is>
@@ -26863,7 +27055,7 @@
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K768" t="inlineStr">
         <is>
@@ -26902,7 +27094,7 @@
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K769" t="inlineStr">
         <is>
@@ -26941,7 +27133,7 @@
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K770" t="inlineStr">
         <is>
@@ -26980,7 +27172,7 @@
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K771" t="inlineStr">
         <is>
@@ -27019,7 +27211,7 @@
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K772" t="inlineStr">
         <is>
@@ -27058,7 +27250,7 @@
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K773" t="inlineStr">
         <is>
@@ -27097,7 +27289,7 @@
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K774" t="inlineStr">
         <is>
@@ -27136,7 +27328,7 @@
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K775" t="inlineStr">
         <is>
@@ -27175,7 +27367,7 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K776" t="inlineStr">
         <is>
@@ -27214,7 +27406,7 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K777" t="inlineStr">
         <is>
@@ -27253,7 +27445,7 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K778" t="inlineStr">
         <is>
@@ -27292,7 +27484,7 @@
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K779" t="inlineStr">
         <is>
@@ -27331,7 +27523,7 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K780" t="inlineStr">
         <is>
@@ -27370,7 +27562,7 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K781" t="inlineStr">
         <is>
@@ -27409,7 +27601,7 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K782" t="inlineStr">
         <is>
@@ -27444,11 +27636,13 @@
         <v>-3550.422620197063</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
-      </c>
-      <c r="I783" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I783" t="n">
+        <v>161700</v>
+      </c>
       <c r="J783" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K783" t="inlineStr">
         <is>
@@ -27483,11 +27677,13 @@
         <v>-3554.000795583581</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
-      </c>
-      <c r="I784" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I784" t="n">
+        <v>161700</v>
+      </c>
       <c r="J784" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K784" t="inlineStr">
         <is>
@@ -27522,11 +27718,13 @@
         <v>-3554.000795583581</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
-      </c>
-      <c r="I785" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I785" t="n">
+        <v>161600</v>
+      </c>
       <c r="J785" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K785" t="inlineStr">
         <is>
@@ -27561,11 +27759,13 @@
         <v>-3549.085295583581</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
-      </c>
-      <c r="I786" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I786" t="n">
+        <v>161600</v>
+      </c>
       <c r="J786" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K786" t="inlineStr">
         <is>
@@ -27600,11 +27800,13 @@
         <v>-3567.035295583581</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
-      </c>
-      <c r="I787" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I787" t="n">
+        <v>161800</v>
+      </c>
       <c r="J787" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K787" t="inlineStr">
         <is>
@@ -27643,7 +27845,7 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K788" t="inlineStr">
         <is>
@@ -27682,7 +27884,7 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K789" t="inlineStr">
         <is>
@@ -27721,7 +27923,7 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K790" t="inlineStr">
         <is>
@@ -27760,7 +27962,7 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K791" t="inlineStr">
         <is>
@@ -27799,7 +28001,7 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K792" t="inlineStr">
         <is>
@@ -27838,7 +28040,7 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K793" t="inlineStr">
         <is>
@@ -27877,7 +28079,7 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K794" t="inlineStr">
         <is>
@@ -27916,7 +28118,7 @@
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K795" t="inlineStr">
         <is>
@@ -27955,7 +28157,7 @@
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K796" t="inlineStr">
         <is>
@@ -27994,7 +28196,7 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K797" t="inlineStr">
         <is>
@@ -28033,7 +28235,7 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K798" t="inlineStr">
         <is>
@@ -28072,7 +28274,7 @@
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K799" t="inlineStr">
         <is>
@@ -28111,7 +28313,7 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K800" t="inlineStr">
         <is>
@@ -28150,7 +28352,7 @@
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K801" t="inlineStr">
         <is>
@@ -28189,7 +28391,7 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K802" t="inlineStr">
         <is>
@@ -28228,7 +28430,7 @@
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K803" t="inlineStr">
         <is>
@@ -28267,7 +28469,7 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K804" t="inlineStr">
         <is>
@@ -28306,7 +28508,7 @@
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K805" t="inlineStr">
         <is>
@@ -28345,7 +28547,7 @@
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K806" t="inlineStr">
         <is>
@@ -28380,11 +28582,13 @@
         <v>-3605.78987767129</v>
       </c>
       <c r="H807" t="n">
-        <v>0</v>
-      </c>
-      <c r="I807" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I807" t="n">
+        <v>161500</v>
+      </c>
       <c r="J807" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K807" t="inlineStr">
         <is>
@@ -28423,7 +28627,7 @@
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K808" t="inlineStr">
         <is>
@@ -28462,7 +28666,7 @@
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K809" t="inlineStr">
         <is>
@@ -28501,7 +28705,7 @@
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K810" t="inlineStr">
         <is>
@@ -28540,7 +28744,7 @@
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K811" t="inlineStr">
         <is>
@@ -28579,7 +28783,7 @@
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K812" t="inlineStr">
         <is>
@@ -28618,7 +28822,7 @@
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K813" t="inlineStr">
         <is>
@@ -28657,7 +28861,7 @@
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K814" t="inlineStr">
         <is>
@@ -28696,7 +28900,7 @@
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K815" t="inlineStr">
         <is>
@@ -28735,7 +28939,7 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K816" t="inlineStr">
         <is>
@@ -28774,7 +28978,7 @@
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K817" t="inlineStr">
         <is>
@@ -28813,7 +29017,7 @@
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K818" t="inlineStr">
         <is>
@@ -28852,7 +29056,7 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K819" t="inlineStr">
         <is>
@@ -28891,7 +29095,7 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K820" t="inlineStr">
         <is>
@@ -28930,7 +29134,7 @@
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K821" t="inlineStr">
         <is>
@@ -28969,7 +29173,7 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K822" t="inlineStr">
         <is>
@@ -29008,7 +29212,7 @@
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K823" t="inlineStr">
         <is>
@@ -29047,7 +29251,7 @@
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K824" t="inlineStr">
         <is>
@@ -29086,7 +29290,7 @@
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K825" t="inlineStr">
         <is>
@@ -29125,7 +29329,7 @@
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K826" t="inlineStr">
         <is>
@@ -29164,7 +29368,7 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K827" t="inlineStr">
         <is>
@@ -29203,7 +29407,7 @@
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K828" t="inlineStr">
         <is>
@@ -29242,7 +29446,7 @@
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K829" t="inlineStr">
         <is>
@@ -29281,7 +29485,7 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K830" t="inlineStr">
         <is>
@@ -29320,7 +29524,7 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K831" t="inlineStr">
         <is>
@@ -29359,7 +29563,7 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K832" t="inlineStr">
         <is>
@@ -29398,7 +29602,7 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K833" t="inlineStr">
         <is>
@@ -29437,7 +29641,7 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K834" t="inlineStr">
         <is>
@@ -29476,7 +29680,7 @@
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K835" t="inlineStr">
         <is>
@@ -29515,7 +29719,7 @@
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K836" t="inlineStr">
         <is>
@@ -29554,7 +29758,7 @@
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K837" t="inlineStr">
         <is>
@@ -29593,7 +29797,7 @@
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K838" t="inlineStr">
         <is>
@@ -29632,7 +29836,7 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K839" t="inlineStr">
         <is>
@@ -29671,7 +29875,7 @@
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K840" t="inlineStr">
         <is>
@@ -29710,7 +29914,7 @@
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K841" t="inlineStr">
         <is>
@@ -29749,7 +29953,7 @@
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K842" t="inlineStr">
         <is>
@@ -29788,7 +29992,7 @@
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K843" t="inlineStr">
         <is>
@@ -29827,7 +30031,7 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K844" t="inlineStr">
         <is>
@@ -29866,7 +30070,7 @@
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K845" t="inlineStr">
         <is>
@@ -29905,7 +30109,7 @@
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K846" t="inlineStr">
         <is>
@@ -29944,7 +30148,7 @@
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K847" t="inlineStr">
         <is>
@@ -29983,7 +30187,7 @@
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K848" t="inlineStr">
         <is>
@@ -30022,7 +30226,7 @@
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K849" t="inlineStr">
         <is>
@@ -30061,7 +30265,7 @@
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K850" t="inlineStr">
         <is>
@@ -30100,7 +30304,7 @@
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K851" t="inlineStr">
         <is>
@@ -30139,7 +30343,7 @@
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K852" t="inlineStr">
         <is>
@@ -30178,7 +30382,7 @@
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K853" t="inlineStr">
         <is>
@@ -30217,7 +30421,7 @@
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K854" t="inlineStr">
         <is>
@@ -30256,7 +30460,7 @@
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K855" t="inlineStr">
         <is>
@@ -30295,7 +30499,7 @@
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K856" t="inlineStr">
         <is>
@@ -30334,7 +30538,7 @@
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K857" t="inlineStr">
         <is>
@@ -30373,7 +30577,7 @@
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K858" t="inlineStr">
         <is>
@@ -30412,7 +30616,7 @@
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K859" t="inlineStr">
         <is>
@@ -30451,7 +30655,7 @@
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K860" t="inlineStr">
         <is>
@@ -30490,7 +30694,7 @@
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K861" t="inlineStr">
         <is>
@@ -30529,7 +30733,7 @@
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K862" t="inlineStr">
         <is>
@@ -30568,7 +30772,7 @@
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K863" t="inlineStr">
         <is>
@@ -30607,7 +30811,7 @@
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K864" t="inlineStr">
         <is>
@@ -30646,7 +30850,7 @@
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K865" t="inlineStr">
         <is>
@@ -30685,7 +30889,7 @@
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K866" t="inlineStr">
         <is>
@@ -30724,7 +30928,7 @@
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K867" t="inlineStr">
         <is>
@@ -30763,7 +30967,7 @@
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K868" t="inlineStr">
         <is>
@@ -30802,7 +31006,7 @@
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K869" t="inlineStr">
         <is>
@@ -30841,7 +31045,7 @@
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K870" t="inlineStr">
         <is>
@@ -30880,7 +31084,7 @@
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K871" t="inlineStr">
         <is>
@@ -30919,7 +31123,7 @@
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K872" t="inlineStr">
         <is>
@@ -30958,7 +31162,7 @@
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K873" t="inlineStr">
         <is>
@@ -30997,7 +31201,7 @@
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K874" t="inlineStr">
         <is>
@@ -31036,7 +31240,7 @@
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K875" t="inlineStr">
         <is>
@@ -31075,7 +31279,7 @@
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K876" t="inlineStr">
         <is>
@@ -31114,7 +31318,7 @@
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K877" t="inlineStr">
         <is>
@@ -31153,7 +31357,7 @@
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K878" t="inlineStr">
         <is>
@@ -31192,7 +31396,7 @@
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K879" t="inlineStr">
         <is>
@@ -31231,7 +31435,7 @@
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K880" t="inlineStr">
         <is>
@@ -31270,7 +31474,7 @@
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K881" t="inlineStr">
         <is>
@@ -31309,7 +31513,7 @@
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K882" t="inlineStr">
         <is>
@@ -31348,7 +31552,7 @@
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K883" t="inlineStr">
         <is>
@@ -31387,7 +31591,7 @@
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K884" t="inlineStr">
         <is>
@@ -31426,7 +31630,7 @@
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K885" t="inlineStr">
         <is>
@@ -31465,7 +31669,7 @@
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K886" t="inlineStr">
         <is>
@@ -31504,7 +31708,7 @@
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K887" t="inlineStr">
         <is>
@@ -31543,7 +31747,7 @@
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K888" t="inlineStr">
         <is>
@@ -31582,7 +31786,7 @@
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K889" t="inlineStr">
         <is>
@@ -31621,7 +31825,7 @@
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K890" t="inlineStr">
         <is>
@@ -31660,7 +31864,7 @@
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K891" t="inlineStr">
         <is>
@@ -31699,7 +31903,7 @@
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K892" t="inlineStr">
         <is>
@@ -31738,7 +31942,7 @@
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K893" t="inlineStr">
         <is>
@@ -31777,7 +31981,7 @@
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K894" t="inlineStr">
         <is>
@@ -31816,7 +32020,7 @@
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K895" t="inlineStr">
         <is>
@@ -31855,7 +32059,7 @@
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K896" t="inlineStr">
         <is>
@@ -31894,7 +32098,7 @@
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K897" t="inlineStr">
         <is>
@@ -31933,7 +32137,7 @@
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K898" t="inlineStr">
         <is>
@@ -31972,7 +32176,7 @@
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K899" t="inlineStr">
         <is>
@@ -32011,7 +32215,7 @@
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K900" t="inlineStr">
         <is>
@@ -32050,7 +32254,7 @@
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K901" t="inlineStr">
         <is>
@@ -32085,11 +32289,13 @@
         <v>-3790.196799784656</v>
       </c>
       <c r="H902" t="n">
-        <v>0</v>
-      </c>
-      <c r="I902" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I902" t="n">
+        <v>161700</v>
+      </c>
       <c r="J902" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K902" t="inlineStr">
         <is>
@@ -32124,11 +32330,13 @@
         <v>-3835.451099784656</v>
       </c>
       <c r="H903" t="n">
-        <v>0</v>
-      </c>
-      <c r="I903" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I903" t="n">
+        <v>161600</v>
+      </c>
       <c r="J903" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K903" t="inlineStr">
         <is>
@@ -32163,11 +32371,13 @@
         <v>-3788.137499784656</v>
       </c>
       <c r="H904" t="n">
-        <v>0</v>
-      </c>
-      <c r="I904" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I904" t="n">
+        <v>161500</v>
+      </c>
       <c r="J904" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K904" t="inlineStr">
         <is>
@@ -32202,11 +32412,13 @@
         <v>-3792.337499784656</v>
       </c>
       <c r="H905" t="n">
-        <v>0</v>
-      </c>
-      <c r="I905" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I905" t="n">
+        <v>161700</v>
+      </c>
       <c r="J905" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K905" t="inlineStr">
         <is>
@@ -32241,11 +32453,13 @@
         <v>-3786.512099784656</v>
       </c>
       <c r="H906" t="n">
-        <v>0</v>
-      </c>
-      <c r="I906" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I906" t="n">
+        <v>161500</v>
+      </c>
       <c r="J906" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K906" t="inlineStr">
         <is>
@@ -32280,11 +32494,13 @@
         <v>-3786.512099784656</v>
       </c>
       <c r="H907" t="n">
-        <v>0</v>
-      </c>
-      <c r="I907" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I907" t="n">
+        <v>161600</v>
+      </c>
       <c r="J907" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K907" t="inlineStr">
         <is>
@@ -32319,11 +32535,13 @@
         <v>-3786.512099784656</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
-      </c>
-      <c r="I908" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I908" t="n">
+        <v>161600</v>
+      </c>
       <c r="J908" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K908" t="inlineStr">
         <is>
@@ -32358,11 +32576,13 @@
         <v>-3786.512099784656</v>
       </c>
       <c r="H909" t="n">
-        <v>0</v>
-      </c>
-      <c r="I909" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I909" t="n">
+        <v>161600</v>
+      </c>
       <c r="J909" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K909" t="inlineStr">
         <is>
@@ -32397,11 +32617,13 @@
         <v>-3786.512099784656</v>
       </c>
       <c r="H910" t="n">
-        <v>0</v>
-      </c>
-      <c r="I910" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I910" t="n">
+        <v>161600</v>
+      </c>
       <c r="J910" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K910" t="inlineStr">
         <is>
@@ -32436,11 +32658,13 @@
         <v>-3779.824299784656</v>
       </c>
       <c r="H911" t="n">
-        <v>0</v>
-      </c>
-      <c r="I911" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I911" t="n">
+        <v>161600</v>
+      </c>
       <c r="J911" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K911" t="inlineStr">
         <is>
@@ -32475,11 +32699,13 @@
         <v>-3779.824299784656</v>
       </c>
       <c r="H912" t="n">
-        <v>0</v>
-      </c>
-      <c r="I912" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I912" t="n">
+        <v>161800</v>
+      </c>
       <c r="J912" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K912" t="inlineStr">
         <is>
@@ -32518,7 +32744,7 @@
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K913" t="inlineStr">
         <is>
@@ -32557,7 +32783,7 @@
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K914" t="inlineStr">
         <is>
@@ -32596,7 +32822,7 @@
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K915" t="inlineStr">
         <is>
@@ -32635,7 +32861,7 @@
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K916" t="inlineStr">
         <is>
@@ -32670,11 +32896,13 @@
         <v>-3840.035099784656</v>
       </c>
       <c r="H917" t="n">
-        <v>0</v>
-      </c>
-      <c r="I917" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I917" t="n">
+        <v>161600</v>
+      </c>
       <c r="J917" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K917" t="inlineStr">
         <is>
@@ -32709,11 +32937,13 @@
         <v>-3839.370899784656</v>
       </c>
       <c r="H918" t="n">
-        <v>0</v>
-      </c>
-      <c r="I918" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I918" t="n">
+        <v>161600</v>
+      </c>
       <c r="J918" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K918" t="inlineStr">
         <is>
@@ -32752,7 +32982,7 @@
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K919" t="inlineStr">
         <is>
@@ -32791,7 +33021,7 @@
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K920" t="inlineStr">
         <is>
@@ -32830,7 +33060,7 @@
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K921" t="inlineStr">
         <is>
@@ -32869,7 +33099,7 @@
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K922" t="inlineStr">
         <is>
@@ -32908,7 +33138,7 @@
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K923" t="inlineStr">
         <is>
@@ -32947,7 +33177,7 @@
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K924" t="inlineStr">
         <is>
@@ -32986,7 +33216,7 @@
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K925" t="inlineStr">
         <is>
@@ -33025,7 +33255,7 @@
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K926" t="inlineStr">
         <is>
@@ -33064,7 +33294,7 @@
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K927" t="inlineStr">
         <is>
@@ -33103,7 +33333,7 @@
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K928" t="inlineStr">
         <is>
@@ -33142,7 +33372,7 @@
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K929" t="inlineStr">
         <is>
@@ -33181,7 +33411,7 @@
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K930" t="inlineStr">
         <is>
@@ -33220,7 +33450,7 @@
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K931" t="inlineStr">
         <is>
@@ -33259,7 +33489,7 @@
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K932" t="inlineStr">
         <is>
@@ -33298,7 +33528,7 @@
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K933" t="inlineStr">
         <is>
@@ -33337,7 +33567,7 @@
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K934" t="inlineStr">
         <is>
@@ -33376,7 +33606,7 @@
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K935" t="inlineStr">
         <is>
@@ -33415,7 +33645,7 @@
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K936" t="inlineStr">
         <is>
@@ -33454,7 +33684,7 @@
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K937" t="inlineStr">
         <is>
@@ -33493,7 +33723,7 @@
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K938" t="inlineStr">
         <is>
@@ -33532,7 +33762,7 @@
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K939" t="inlineStr">
         <is>
@@ -33571,7 +33801,7 @@
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K940" t="inlineStr">
         <is>
@@ -33610,7 +33840,7 @@
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K941" t="inlineStr">
         <is>
@@ -33649,7 +33879,7 @@
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K942" t="inlineStr">
         <is>
@@ -33688,7 +33918,7 @@
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K943" t="inlineStr">
         <is>
@@ -33727,7 +33957,7 @@
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K944" t="inlineStr">
         <is>
@@ -33766,7 +33996,7 @@
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K945" t="inlineStr">
         <is>
@@ -33805,7 +34035,7 @@
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K946" t="inlineStr">
         <is>
@@ -33844,7 +34074,7 @@
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K947" t="inlineStr">
         <is>
@@ -33883,7 +34113,7 @@
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K948" t="inlineStr">
         <is>
@@ -33922,7 +34152,7 @@
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K949" t="inlineStr">
         <is>
@@ -33961,7 +34191,7 @@
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K950" t="inlineStr">
         <is>
@@ -34000,7 +34230,7 @@
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K951" t="inlineStr">
         <is>
@@ -34039,7 +34269,7 @@
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K952" t="inlineStr">
         <is>
@@ -34078,7 +34308,7 @@
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K953" t="inlineStr">
         <is>
@@ -34117,7 +34347,7 @@
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K954" t="inlineStr">
         <is>
@@ -34156,7 +34386,7 @@
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K955" t="inlineStr">
         <is>
@@ -34195,7 +34425,7 @@
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K956" t="inlineStr">
         <is>
@@ -34234,7 +34464,7 @@
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K957" t="inlineStr">
         <is>
@@ -34273,7 +34503,7 @@
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K958" t="inlineStr">
         <is>
@@ -34312,7 +34542,7 @@
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K959" t="inlineStr">
         <is>
@@ -34351,7 +34581,7 @@
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K960" t="inlineStr">
         <is>
@@ -34390,7 +34620,7 @@
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K961" t="inlineStr">
         <is>
@@ -34429,7 +34659,7 @@
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K962" t="inlineStr">
         <is>
@@ -34468,7 +34698,7 @@
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K963" t="inlineStr">
         <is>
@@ -34507,7 +34737,7 @@
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K964" t="inlineStr">
         <is>
@@ -34546,7 +34776,7 @@
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K965" t="inlineStr">
         <is>
@@ -34585,7 +34815,7 @@
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K966" t="inlineStr">
         <is>
@@ -34624,7 +34854,7 @@
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K967" t="inlineStr">
         <is>
@@ -34663,7 +34893,7 @@
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K968" t="inlineStr">
         <is>
@@ -34702,7 +34932,7 @@
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K969" t="inlineStr">
         <is>
@@ -34741,7 +34971,7 @@
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K970" t="inlineStr">
         <is>
@@ -34780,7 +35010,7 @@
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K971" t="inlineStr">
         <is>
@@ -34819,7 +35049,7 @@
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K972" t="inlineStr">
         <is>
@@ -34858,7 +35088,7 @@
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K973" t="inlineStr">
         <is>
@@ -34897,7 +35127,7 @@
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K974" t="inlineStr">
         <is>
@@ -34936,7 +35166,7 @@
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K975" t="inlineStr">
         <is>
@@ -34975,7 +35205,7 @@
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K976" t="inlineStr">
         <is>
@@ -35014,7 +35244,7 @@
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K977" t="inlineStr">
         <is>
@@ -35053,7 +35283,7 @@
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K978" t="inlineStr">
         <is>
@@ -35092,7 +35322,7 @@
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K979" t="inlineStr">
         <is>
@@ -35131,7 +35361,7 @@
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K980" t="inlineStr">
         <is>
@@ -35166,11 +35396,13 @@
         <v>-3991.449524470008</v>
       </c>
       <c r="H981" t="n">
-        <v>0</v>
-      </c>
-      <c r="I981" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I981" t="n">
+        <v>161800</v>
+      </c>
       <c r="J981" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K981" t="inlineStr">
         <is>
@@ -35205,11 +35437,13 @@
         <v>-3990.864124470008</v>
       </c>
       <c r="H982" t="n">
-        <v>0</v>
-      </c>
-      <c r="I982" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I982" t="n">
+        <v>161700</v>
+      </c>
       <c r="J982" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K982" t="inlineStr">
         <is>
@@ -35244,11 +35478,13 @@
         <v>-3990.864124470008</v>
       </c>
       <c r="H983" t="n">
-        <v>0</v>
-      </c>
-      <c r="I983" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I983" t="n">
+        <v>161800</v>
+      </c>
       <c r="J983" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K983" t="inlineStr">
         <is>
@@ -35283,11 +35519,13 @@
         <v>-3990.892324470009</v>
       </c>
       <c r="H984" t="n">
-        <v>0</v>
-      </c>
-      <c r="I984" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I984" t="n">
+        <v>161800</v>
+      </c>
       <c r="J984" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K984" t="inlineStr">
         <is>
@@ -35322,11 +35560,13 @@
         <v>-3990.694924470009</v>
       </c>
       <c r="H985" t="n">
-        <v>0</v>
-      </c>
-      <c r="I985" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I985" t="n">
+        <v>161700</v>
+      </c>
       <c r="J985" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K985" t="inlineStr">
         <is>
@@ -35361,11 +35601,13 @@
         <v>-3990.694924470009</v>
       </c>
       <c r="H986" t="n">
-        <v>0</v>
-      </c>
-      <c r="I986" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I986" t="n">
+        <v>161900</v>
+      </c>
       <c r="J986" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K986" t="inlineStr">
         <is>
@@ -35404,7 +35646,7 @@
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K987" t="inlineStr">
         <is>
@@ -35443,7 +35685,7 @@
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K988" t="inlineStr">
         <is>
@@ -35482,7 +35724,7 @@
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K989" t="inlineStr">
         <is>
@@ -35521,7 +35763,7 @@
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K990" t="inlineStr">
         <is>
@@ -35560,7 +35802,7 @@
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K991" t="inlineStr">
         <is>
@@ -35599,7 +35841,7 @@
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K992" t="inlineStr">
         <is>
@@ -35638,7 +35880,7 @@
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K993" t="inlineStr">
         <is>
@@ -35677,7 +35919,7 @@
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K994" t="inlineStr">
         <is>
@@ -35716,7 +35958,7 @@
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K995" t="inlineStr">
         <is>
@@ -35755,7 +35997,7 @@
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K996" t="inlineStr">
         <is>
@@ -35794,7 +36036,7 @@
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K997" t="inlineStr">
         <is>
@@ -35833,7 +36075,7 @@
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K998" t="inlineStr">
         <is>
@@ -35872,7 +36114,7 @@
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K999" t="inlineStr">
         <is>
@@ -35911,7 +36153,7 @@
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K1000" t="inlineStr">
         <is>
@@ -35950,7 +36192,7 @@
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K1001" t="inlineStr">
         <is>
@@ -35989,7 +36231,7 @@
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="n">
-        <v>161100</v>
+        <v>161700</v>
       </c>
       <c r="K1002" t="inlineStr">
         <is>
@@ -36002,6 +36244,6 @@
       <c r="M1002" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest ETH.xlsx
+++ b/BackTest/2020-01-14 BackTest ETH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>380.6241303440044</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>381.3873303440044</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>372.1467303440044</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>439.0644780532285</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>432.8513675397811</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>424.1829675397811</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>424.5138675397811</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>424.5138675397811</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>424.7137675397811</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>425.5283675397811</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>436.0081675397811</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>429.8465675397811</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>429.8465675397811</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>429.146467539781</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>425.5505675397811</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>425.5505675397811</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>425.5505675397811</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>421.7797675397811</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>421.7867675397811</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>421.7867675397811</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>433.1569675397811</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>430.4301675397811</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>433.6311675397811</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>422.8957675397812</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>405.1240675397811</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>288.9346145446711</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>288.9346145446711</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>288.9346145446711</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>288.9346145446711</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>288.9346145446711</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>286.0293145446711</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>286.5438145446711</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>286.5438145446711</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>286.5438145446711</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>286.5438145446711</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>287.0630145446711</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>287.0630145446711</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>317.1627114330176</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>320.5598114330177</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>320.5598114330177</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>313.5598114330177</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>313.5598114330177</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>313.5598114330177</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>313.5598114330177</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>313.5598114330177</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>313.5598114330177</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>313.5598114330177</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>313.9437114330177</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>310.1674114330177</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>310.1674114330177</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>310.1674114330177</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>310.1674114330177</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>310.1674114330177</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>493.0501114330177</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>486.6694114330177</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>502.8676114330177</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>502.8676114330177</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>501.8658114330177</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>501.8658114330177</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>501.8658114330177</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>501.8658114330177</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>501.8658114330177</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>793.8846463082459</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>793.5867463082459</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>770.1884515457612</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>770.1915515457612</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>766.4292515457612</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>766.4292515457612</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>766.4292515457612</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>773.5933515457612</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>772.7731515457612</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>767.3242515457612</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>767.9134515457612</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>767.9134515457612</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>759.0990515457612</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>759.0990515457612</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>755.6598515457612</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>755.6598515457612</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>755.6598515457612</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>754.3571515457612</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>754.3571515457612</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>754.3571515457612</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>754.3571515457612</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>759.8669515457613</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>884.3787515457612</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>820.2218515457613</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>1078.954251545761</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>1078.954251545761</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>1078.954251545761</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>1078.954251545761</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>1063.325996457401</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>1128.025996457401</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>1104.184196457401</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>1107.708296457401</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>1107.674996457401</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>1117.679196457401</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>1117.585596457401</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>1117.585596457401</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>1117.731896457401</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>1117.731896457401</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>1514.583196457401</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>1514.583196457401</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>1651.683196457401</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>2018.862596457401</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>2339.475596457401</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>2339.475596457401</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>2291.134496457401</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>2215.545196457401</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>2154.099296457401</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>2154.099296457401</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>2044.925296457401</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>2107.1452964574</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>2107.1452964574</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>2107.1452964574</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>2175.677496457401</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>2192.008696457401</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>2158.247496457401</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>2256.791096457401</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>2266.065596457401</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>2265.690496457401</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>2257.847496457401</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>2267.281696457401</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>2266.281696457401</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>2266.281696457401</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>2266.281696457401</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>2223.465910821369</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>2207.965910821369</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>2201.941210821369</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>2206.546210821369</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>2171.105010821369</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>2147.530510821369</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>2096.267110821369</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>2055.189010821369</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>2107.997510821369</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>2085.265510821369</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>2089.746910821369</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>2118.108673337302</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>2103.804464601811</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>2103.804464601811</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>2099.850564601811</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>2119.588564601811</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>2117.37556460181</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>2133.26816460181</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>2133.26816460181</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>2133.26816460181</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>2159.946203068265</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>1967.245903068265</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>1967.245903068265</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>1967.245903068265</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>2053.786403068265</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>2422.875870562743</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>2417.931270562744</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>2408.185870562743</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>2161.173170562744</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>2147.070768000206</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>2053.909868000206</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>2053.909868000206</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>2066.125968000206</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>2057.893168000206</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>2057.893168000206</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>2057.893168000206</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>2050.812868000206</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>1955.677368000206</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>1924.115068000206</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>1256.641513515764</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>1126.233213515764</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>365.479013515764</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>-2778.625661640002</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -19360,14 +19360,10 @@
         <v>-3811.709765386347</v>
       </c>
       <c r="H575" t="n">
-        <v>1</v>
-      </c>
-      <c r="I575" t="n">
-        <v>161700</v>
-      </c>
-      <c r="J575" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I575" t="inlineStr"/>
+      <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
@@ -19397,19 +19393,11 @@
         <v>-3813.485665386347</v>
       </c>
       <c r="H576" t="n">
-        <v>1</v>
-      </c>
-      <c r="I576" t="n">
-        <v>161700</v>
-      </c>
-      <c r="J576" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I576" t="inlineStr"/>
+      <c r="J576" t="inlineStr"/>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19438,19 +19426,11 @@
         <v>-3807.989965386347</v>
       </c>
       <c r="H577" t="n">
-        <v>1</v>
-      </c>
-      <c r="I577" t="n">
-        <v>161500</v>
-      </c>
-      <c r="J577" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I577" t="inlineStr"/>
+      <c r="J577" t="inlineStr"/>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19479,14 +19459,10 @@
         <v>-3807.989965386347</v>
       </c>
       <c r="H578" t="n">
-        <v>1</v>
-      </c>
-      <c r="I578" t="n">
-        <v>161700</v>
-      </c>
-      <c r="J578" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I578" t="inlineStr"/>
+      <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
@@ -19516,19 +19492,11 @@
         <v>-3807.989965386347</v>
       </c>
       <c r="H579" t="n">
-        <v>1</v>
-      </c>
-      <c r="I579" t="n">
-        <v>161700</v>
-      </c>
-      <c r="J579" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I579" t="inlineStr"/>
+      <c r="J579" t="inlineStr"/>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -19557,19 +19525,11 @@
         <v>-3807.989965386347</v>
       </c>
       <c r="H580" t="n">
-        <v>1</v>
-      </c>
-      <c r="I580" t="n">
-        <v>161700</v>
-      </c>
-      <c r="J580" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I580" t="inlineStr"/>
+      <c r="J580" t="inlineStr"/>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -19598,224 +19558,182 @@
         <v>-3812.001665386347</v>
       </c>
       <c r="H581" t="n">
-        <v>1</v>
-      </c>
-      <c r="I581" t="n">
+        <v>0</v>
+      </c>
+      <c r="I581" t="inlineStr"/>
+      <c r="J581" t="inlineStr"/>
+      <c r="K581" t="inlineStr"/>
+      <c r="L581" t="n">
+        <v>1</v>
+      </c>
+      <c r="M581" t="inlineStr"/>
+    </row>
+    <row r="582">
+      <c r="A582" s="1" t="n">
+        <v>580</v>
+      </c>
+      <c r="B582" t="n">
         <v>161700</v>
       </c>
-      <c r="J581" t="n">
+      <c r="C582" t="n">
         <v>161700</v>
       </c>
-      <c r="K581" t="inlineStr">
+      <c r="D582" t="n">
+        <v>161700</v>
+      </c>
+      <c r="E582" t="n">
+        <v>161500</v>
+      </c>
+      <c r="F582" t="n">
+        <v>34.3066</v>
+      </c>
+      <c r="G582" t="n">
+        <v>-3777.695065386347</v>
+      </c>
+      <c r="H582" t="n">
+        <v>0</v>
+      </c>
+      <c r="I582" t="inlineStr"/>
+      <c r="J582" t="inlineStr"/>
+      <c r="K582" t="inlineStr"/>
+      <c r="L582" t="n">
+        <v>1</v>
+      </c>
+      <c r="M582" t="inlineStr"/>
+    </row>
+    <row r="583">
+      <c r="A583" s="1" t="n">
+        <v>581</v>
+      </c>
+      <c r="B583" t="n">
+        <v>161500</v>
+      </c>
+      <c r="C583" t="n">
+        <v>161400</v>
+      </c>
+      <c r="D583" t="n">
+        <v>161500</v>
+      </c>
+      <c r="E583" t="n">
+        <v>161400</v>
+      </c>
+      <c r="F583" t="n">
+        <v>19.8334</v>
+      </c>
+      <c r="G583" t="n">
+        <v>-3797.528465386347</v>
+      </c>
+      <c r="H583" t="n">
+        <v>0</v>
+      </c>
+      <c r="I583" t="inlineStr"/>
+      <c r="J583" t="inlineStr"/>
+      <c r="K583" t="inlineStr"/>
+      <c r="L583" t="n">
+        <v>1</v>
+      </c>
+      <c r="M583" t="inlineStr"/>
+    </row>
+    <row r="584">
+      <c r="A584" s="1" t="n">
+        <v>582</v>
+      </c>
+      <c r="B584" t="n">
+        <v>161400</v>
+      </c>
+      <c r="C584" t="n">
+        <v>161200</v>
+      </c>
+      <c r="D584" t="n">
+        <v>161400</v>
+      </c>
+      <c r="E584" t="n">
+        <v>161200</v>
+      </c>
+      <c r="F584" t="n">
+        <v>18.2728</v>
+      </c>
+      <c r="G584" t="n">
+        <v>-3815.801265386347</v>
+      </c>
+      <c r="H584" t="n">
+        <v>0</v>
+      </c>
+      <c r="I584" t="inlineStr"/>
+      <c r="J584" t="inlineStr"/>
+      <c r="K584" t="inlineStr"/>
+      <c r="L584" t="n">
+        <v>1</v>
+      </c>
+      <c r="M584" t="inlineStr"/>
+    </row>
+    <row r="585">
+      <c r="A585" s="1" t="n">
+        <v>583</v>
+      </c>
+      <c r="B585" t="n">
+        <v>161200</v>
+      </c>
+      <c r="C585" t="n">
+        <v>161200</v>
+      </c>
+      <c r="D585" t="n">
+        <v>161300</v>
+      </c>
+      <c r="E585" t="n">
+        <v>161200</v>
+      </c>
+      <c r="F585" t="n">
+        <v>72.699</v>
+      </c>
+      <c r="G585" t="n">
+        <v>-3815.801265386347</v>
+      </c>
+      <c r="H585" t="n">
+        <v>0</v>
+      </c>
+      <c r="I585" t="inlineStr"/>
+      <c r="J585" t="inlineStr"/>
+      <c r="K585" t="inlineStr"/>
+      <c r="L585" t="n">
+        <v>1</v>
+      </c>
+      <c r="M585" t="inlineStr"/>
+    </row>
+    <row r="586">
+      <c r="A586" s="1" t="n">
+        <v>584</v>
+      </c>
+      <c r="B586" t="n">
+        <v>161200</v>
+      </c>
+      <c r="C586" t="n">
+        <v>161100</v>
+      </c>
+      <c r="D586" t="n">
+        <v>161300</v>
+      </c>
+      <c r="E586" t="n">
+        <v>161100</v>
+      </c>
+      <c r="F586" t="n">
+        <v>24.1546</v>
+      </c>
+      <c r="G586" t="n">
+        <v>-3839.955865386347</v>
+      </c>
+      <c r="H586" t="n">
+        <v>1</v>
+      </c>
+      <c r="I586" t="n">
+        <v>161200</v>
+      </c>
+      <c r="J586" t="inlineStr"/>
+      <c r="K586" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L581" t="n">
-        <v>1</v>
-      </c>
-      <c r="M581" t="inlineStr"/>
-    </row>
-    <row r="582">
-      <c r="A582" s="1" t="n">
-        <v>580</v>
-      </c>
-      <c r="B582" t="n">
-        <v>161700</v>
-      </c>
-      <c r="C582" t="n">
-        <v>161700</v>
-      </c>
-      <c r="D582" t="n">
-        <v>161700</v>
-      </c>
-      <c r="E582" t="n">
-        <v>161500</v>
-      </c>
-      <c r="F582" t="n">
-        <v>34.3066</v>
-      </c>
-      <c r="G582" t="n">
-        <v>-3777.695065386347</v>
-      </c>
-      <c r="H582" t="n">
-        <v>1</v>
-      </c>
-      <c r="I582" t="n">
-        <v>161500</v>
-      </c>
-      <c r="J582" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L582" t="n">
-        <v>1</v>
-      </c>
-      <c r="M582" t="inlineStr"/>
-    </row>
-    <row r="583">
-      <c r="A583" s="1" t="n">
-        <v>581</v>
-      </c>
-      <c r="B583" t="n">
-        <v>161500</v>
-      </c>
-      <c r="C583" t="n">
-        <v>161400</v>
-      </c>
-      <c r="D583" t="n">
-        <v>161500</v>
-      </c>
-      <c r="E583" t="n">
-        <v>161400</v>
-      </c>
-      <c r="F583" t="n">
-        <v>19.8334</v>
-      </c>
-      <c r="G583" t="n">
-        <v>-3797.528465386347</v>
-      </c>
-      <c r="H583" t="n">
-        <v>1</v>
-      </c>
-      <c r="I583" t="n">
-        <v>161700</v>
-      </c>
-      <c r="J583" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L583" t="n">
-        <v>1</v>
-      </c>
-      <c r="M583" t="inlineStr"/>
-    </row>
-    <row r="584">
-      <c r="A584" s="1" t="n">
-        <v>582</v>
-      </c>
-      <c r="B584" t="n">
-        <v>161400</v>
-      </c>
-      <c r="C584" t="n">
-        <v>161200</v>
-      </c>
-      <c r="D584" t="n">
-        <v>161400</v>
-      </c>
-      <c r="E584" t="n">
-        <v>161200</v>
-      </c>
-      <c r="F584" t="n">
-        <v>18.2728</v>
-      </c>
-      <c r="G584" t="n">
-        <v>-3815.801265386347</v>
-      </c>
-      <c r="H584" t="n">
-        <v>1</v>
-      </c>
-      <c r="I584" t="n">
-        <v>161400</v>
-      </c>
-      <c r="J584" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L584" t="n">
-        <v>1</v>
-      </c>
-      <c r="M584" t="inlineStr"/>
-    </row>
-    <row r="585">
-      <c r="A585" s="1" t="n">
-        <v>583</v>
-      </c>
-      <c r="B585" t="n">
-        <v>161200</v>
-      </c>
-      <c r="C585" t="n">
-        <v>161200</v>
-      </c>
-      <c r="D585" t="n">
-        <v>161300</v>
-      </c>
-      <c r="E585" t="n">
-        <v>161200</v>
-      </c>
-      <c r="F585" t="n">
-        <v>72.699</v>
-      </c>
-      <c r="G585" t="n">
-        <v>-3815.801265386347</v>
-      </c>
-      <c r="H585" t="n">
-        <v>1</v>
-      </c>
-      <c r="I585" t="n">
-        <v>161200</v>
-      </c>
-      <c r="J585" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L585" t="n">
-        <v>1</v>
-      </c>
-      <c r="M585" t="inlineStr"/>
-    </row>
-    <row r="586">
-      <c r="A586" s="1" t="n">
-        <v>584</v>
-      </c>
-      <c r="B586" t="n">
-        <v>161200</v>
-      </c>
-      <c r="C586" t="n">
-        <v>161100</v>
-      </c>
-      <c r="D586" t="n">
-        <v>161300</v>
-      </c>
-      <c r="E586" t="n">
-        <v>161100</v>
-      </c>
-      <c r="F586" t="n">
-        <v>24.1546</v>
-      </c>
-      <c r="G586" t="n">
-        <v>-3839.955865386347</v>
-      </c>
-      <c r="H586" t="n">
-        <v>1</v>
-      </c>
-      <c r="I586" t="n">
-        <v>161200</v>
-      </c>
-      <c r="J586" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -19849,9 +19767,7 @@
       <c r="I587" t="n">
         <v>161100</v>
       </c>
-      <c r="J587" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19890,9 +19806,7 @@
       <c r="I588" t="n">
         <v>161100</v>
       </c>
-      <c r="J588" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19931,9 +19845,7 @@
       <c r="I589" t="n">
         <v>161100</v>
       </c>
-      <c r="J589" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19972,9 +19884,7 @@
       <c r="I590" t="n">
         <v>161200</v>
       </c>
-      <c r="J590" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20013,9 +19923,7 @@
       <c r="I591" t="n">
         <v>161200</v>
       </c>
-      <c r="J591" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20054,9 +19962,7 @@
       <c r="I592" t="n">
         <v>161200</v>
       </c>
-      <c r="J592" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20095,9 +20001,7 @@
       <c r="I593" t="n">
         <v>161200</v>
       </c>
-      <c r="J593" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20136,9 +20040,7 @@
       <c r="I594" t="n">
         <v>161200</v>
       </c>
-      <c r="J594" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20177,9 +20079,7 @@
       <c r="I595" t="n">
         <v>161200</v>
       </c>
-      <c r="J595" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20218,9 +20118,7 @@
       <c r="I596" t="n">
         <v>161100</v>
       </c>
-      <c r="J596" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20259,9 +20157,7 @@
       <c r="I597" t="n">
         <v>161200</v>
       </c>
-      <c r="J597" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20300,9 +20196,7 @@
       <c r="I598" t="n">
         <v>161200</v>
       </c>
-      <c r="J598" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20341,9 +20235,7 @@
       <c r="I599" t="n">
         <v>161200</v>
       </c>
-      <c r="J599" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20382,9 +20274,7 @@
       <c r="I600" t="n">
         <v>161200</v>
       </c>
-      <c r="J600" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20423,9 +20313,7 @@
       <c r="I601" t="n">
         <v>161200</v>
       </c>
-      <c r="J601" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20464,9 +20352,7 @@
       <c r="I602" t="n">
         <v>161100</v>
       </c>
-      <c r="J602" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20505,9 +20391,7 @@
       <c r="I603" t="n">
         <v>161300</v>
       </c>
-      <c r="J603" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20546,9 +20430,7 @@
       <c r="I604" t="n">
         <v>161400</v>
       </c>
-      <c r="J604" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20587,9 +20469,7 @@
       <c r="I605" t="n">
         <v>161200</v>
       </c>
-      <c r="J605" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20628,9 +20508,7 @@
       <c r="I606" t="n">
         <v>161500</v>
       </c>
-      <c r="J606" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20664,14 +20542,10 @@
         <v>-3716.249465386347</v>
       </c>
       <c r="H607" t="n">
-        <v>1</v>
-      </c>
-      <c r="I607" t="n">
-        <v>161400</v>
-      </c>
-      <c r="J607" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I607" t="inlineStr"/>
+      <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20705,14 +20579,10 @@
         <v>-3716.249465386347</v>
       </c>
       <c r="H608" t="n">
-        <v>1</v>
-      </c>
-      <c r="I608" t="n">
-        <v>161400</v>
-      </c>
-      <c r="J608" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I608" t="inlineStr"/>
+      <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20746,14 +20616,10 @@
         <v>-3551.808788310759</v>
       </c>
       <c r="H609" t="n">
-        <v>1</v>
-      </c>
-      <c r="I609" t="n">
-        <v>161400</v>
-      </c>
-      <c r="J609" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I609" t="inlineStr"/>
+      <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20787,14 +20653,10 @@
         <v>-3551.808788310759</v>
       </c>
       <c r="H610" t="n">
-        <v>1</v>
-      </c>
-      <c r="I610" t="n">
-        <v>161700</v>
-      </c>
-      <c r="J610" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I610" t="inlineStr"/>
+      <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20828,14 +20690,10 @@
         <v>-3527.598788310759</v>
       </c>
       <c r="H611" t="n">
-        <v>1</v>
-      </c>
-      <c r="I611" t="n">
-        <v>161700</v>
-      </c>
-      <c r="J611" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I611" t="inlineStr"/>
+      <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20869,14 +20727,10 @@
         <v>-3416.763288310759</v>
       </c>
       <c r="H612" t="n">
-        <v>1</v>
-      </c>
-      <c r="I612" t="n">
-        <v>161800</v>
-      </c>
-      <c r="J612" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I612" t="inlineStr"/>
+      <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20913,9 +20767,7 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20952,9 +20804,7 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20991,9 +20841,7 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21030,9 +20878,7 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21069,9 +20915,7 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21108,9 +20952,7 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21147,9 +20989,7 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21186,9 +21026,7 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21225,9 +21063,7 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21264,9 +21100,7 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21303,9 +21137,7 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21342,9 +21174,7 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21381,9 +21211,7 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21420,9 +21248,7 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21459,9 +21285,7 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21498,9 +21322,7 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21537,9 +21359,7 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21576,9 +21396,7 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21615,9 +21433,7 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21654,9 +21470,7 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21693,9 +21507,7 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21732,9 +21544,7 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21768,14 +21578,10 @@
         <v>-3309.542488310758</v>
       </c>
       <c r="H635" t="n">
-        <v>1</v>
-      </c>
-      <c r="I635" t="n">
-        <v>161700</v>
-      </c>
-      <c r="J635" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I635" t="inlineStr"/>
+      <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21809,14 +21615,10 @@
         <v>-3313.744688310759</v>
       </c>
       <c r="H636" t="n">
-        <v>1</v>
-      </c>
-      <c r="I636" t="n">
-        <v>161900</v>
-      </c>
-      <c r="J636" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I636" t="inlineStr"/>
+      <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21850,14 +21652,10 @@
         <v>-3268.129888310759</v>
       </c>
       <c r="H637" t="n">
-        <v>1</v>
-      </c>
-      <c r="I637" t="n">
-        <v>161800</v>
-      </c>
-      <c r="J637" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I637" t="inlineStr"/>
+      <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21891,14 +21689,10 @@
         <v>-3268.129888310759</v>
       </c>
       <c r="H638" t="n">
-        <v>1</v>
-      </c>
-      <c r="I638" t="n">
-        <v>161900</v>
-      </c>
-      <c r="J638" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I638" t="inlineStr"/>
+      <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21932,14 +21726,10 @@
         <v>-3268.251888310759</v>
       </c>
       <c r="H639" t="n">
-        <v>1</v>
-      </c>
-      <c r="I639" t="n">
-        <v>161900</v>
-      </c>
-      <c r="J639" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I639" t="inlineStr"/>
+      <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21973,14 +21763,10 @@
         <v>-3268.151888310759</v>
       </c>
       <c r="H640" t="n">
-        <v>1</v>
-      </c>
-      <c r="I640" t="n">
-        <v>161600</v>
-      </c>
-      <c r="J640" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I640" t="inlineStr"/>
+      <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22014,14 +21800,10 @@
         <v>-3271.887488310759</v>
       </c>
       <c r="H641" t="n">
-        <v>1</v>
-      </c>
-      <c r="I641" t="n">
-        <v>161700</v>
-      </c>
-      <c r="J641" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I641" t="inlineStr"/>
+      <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22055,14 +21837,10 @@
         <v>-3271.887488310759</v>
       </c>
       <c r="H642" t="n">
-        <v>1</v>
-      </c>
-      <c r="I642" t="n">
-        <v>161600</v>
-      </c>
-      <c r="J642" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I642" t="inlineStr"/>
+      <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22096,14 +21874,10 @@
         <v>-3271.887488310759</v>
       </c>
       <c r="H643" t="n">
-        <v>1</v>
-      </c>
-      <c r="I643" t="n">
-        <v>161600</v>
-      </c>
-      <c r="J643" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I643" t="inlineStr"/>
+      <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22137,14 +21911,10 @@
         <v>-3271.863688310759</v>
       </c>
       <c r="H644" t="n">
-        <v>1</v>
-      </c>
-      <c r="I644" t="n">
-        <v>161600</v>
-      </c>
-      <c r="J644" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I644" t="inlineStr"/>
+      <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22178,14 +21948,10 @@
         <v>-3306.552588310759</v>
       </c>
       <c r="H645" t="n">
-        <v>1</v>
-      </c>
-      <c r="I645" t="n">
-        <v>161700</v>
-      </c>
-      <c r="J645" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I645" t="inlineStr"/>
+      <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22219,14 +21985,10 @@
         <v>-3299.205088310759</v>
       </c>
       <c r="H646" t="n">
-        <v>1</v>
-      </c>
-      <c r="I646" t="n">
-        <v>161600</v>
-      </c>
-      <c r="J646" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I646" t="inlineStr"/>
+      <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22260,14 +22022,10 @@
         <v>-3369.195088310759</v>
       </c>
       <c r="H647" t="n">
-        <v>1</v>
-      </c>
-      <c r="I647" t="n">
-        <v>161700</v>
-      </c>
-      <c r="J647" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I647" t="inlineStr"/>
+      <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22301,14 +22059,10 @@
         <v>-3369.185788310759</v>
       </c>
       <c r="H648" t="n">
-        <v>1</v>
-      </c>
-      <c r="I648" t="n">
-        <v>161500</v>
-      </c>
-      <c r="J648" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I648" t="inlineStr"/>
+      <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22342,14 +22096,10 @@
         <v>-3369.185788310759</v>
       </c>
       <c r="H649" t="n">
-        <v>1</v>
-      </c>
-      <c r="I649" t="n">
-        <v>161600</v>
-      </c>
-      <c r="J649" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I649" t="inlineStr"/>
+      <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22383,14 +22133,10 @@
         <v>-3355.734188310759</v>
       </c>
       <c r="H650" t="n">
-        <v>1</v>
-      </c>
-      <c r="I650" t="n">
-        <v>161600</v>
-      </c>
-      <c r="J650" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I650" t="inlineStr"/>
+      <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22424,14 +22170,10 @@
         <v>-3359.950088310759</v>
       </c>
       <c r="H651" t="n">
-        <v>1</v>
-      </c>
-      <c r="I651" t="n">
-        <v>161700</v>
-      </c>
-      <c r="J651" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I651" t="inlineStr"/>
+      <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22465,14 +22207,10 @@
         <v>-3359.950088310759</v>
       </c>
       <c r="H652" t="n">
-        <v>1</v>
-      </c>
-      <c r="I652" t="n">
-        <v>161500</v>
-      </c>
-      <c r="J652" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I652" t="inlineStr"/>
+      <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22506,14 +22244,10 @@
         <v>-3359.950088310759</v>
       </c>
       <c r="H653" t="n">
-        <v>1</v>
-      </c>
-      <c r="I653" t="n">
-        <v>161500</v>
-      </c>
-      <c r="J653" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I653" t="inlineStr"/>
+      <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22547,14 +22281,10 @@
         <v>-3398.547888310759</v>
       </c>
       <c r="H654" t="n">
-        <v>1</v>
-      </c>
-      <c r="I654" t="n">
-        <v>161500</v>
-      </c>
-      <c r="J654" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I654" t="inlineStr"/>
+      <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22588,14 +22318,10 @@
         <v>-3408.457188310759</v>
       </c>
       <c r="H655" t="n">
-        <v>1</v>
-      </c>
-      <c r="I655" t="n">
-        <v>161400</v>
-      </c>
-      <c r="J655" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I655" t="inlineStr"/>
+      <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22629,14 +22355,10 @@
         <v>-3411.475088310759</v>
       </c>
       <c r="H656" t="n">
-        <v>1</v>
-      </c>
-      <c r="I656" t="n">
-        <v>161200</v>
-      </c>
-      <c r="J656" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I656" t="inlineStr"/>
+      <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22670,14 +22392,10 @@
         <v>-3282.735088310758</v>
       </c>
       <c r="H657" t="n">
-        <v>1</v>
-      </c>
-      <c r="I657" t="n">
-        <v>161100</v>
-      </c>
-      <c r="J657" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I657" t="inlineStr"/>
+      <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22711,14 +22429,10 @@
         <v>-3334.426088310758</v>
       </c>
       <c r="H658" t="n">
-        <v>1</v>
-      </c>
-      <c r="I658" t="n">
-        <v>161500</v>
-      </c>
-      <c r="J658" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I658" t="inlineStr"/>
+      <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22752,14 +22466,10 @@
         <v>-3508.877088310758</v>
       </c>
       <c r="H659" t="n">
-        <v>1</v>
-      </c>
-      <c r="I659" t="n">
-        <v>161400</v>
-      </c>
-      <c r="J659" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I659" t="inlineStr"/>
+      <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22793,14 +22503,10 @@
         <v>-3514.836988310758</v>
       </c>
       <c r="H660" t="n">
-        <v>1</v>
-      </c>
-      <c r="I660" t="n">
-        <v>161100</v>
-      </c>
-      <c r="J660" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I660" t="inlineStr"/>
+      <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22834,14 +22540,10 @@
         <v>-3514.836988310758</v>
       </c>
       <c r="H661" t="n">
-        <v>1</v>
-      </c>
-      <c r="I661" t="n">
-        <v>161000</v>
-      </c>
-      <c r="J661" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I661" t="inlineStr"/>
+      <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22875,14 +22577,10 @@
         <v>-3498.665788310758</v>
       </c>
       <c r="H662" t="n">
-        <v>1</v>
-      </c>
-      <c r="I662" t="n">
-        <v>161000</v>
-      </c>
-      <c r="J662" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I662" t="inlineStr"/>
+      <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22916,14 +22614,10 @@
         <v>-3483.958588310758</v>
       </c>
       <c r="H663" t="n">
-        <v>1</v>
-      </c>
-      <c r="I663" t="n">
-        <v>161100</v>
-      </c>
-      <c r="J663" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I663" t="inlineStr"/>
+      <c r="J663" t="inlineStr"/>
       <c r="K663" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22962,9 +22656,7 @@
       <c r="I664" t="n">
         <v>161200</v>
       </c>
-      <c r="J664" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22998,14 +22690,10 @@
         <v>-3482.460688310758</v>
       </c>
       <c r="H665" t="n">
-        <v>1</v>
-      </c>
-      <c r="I665" t="n">
-        <v>161000</v>
-      </c>
-      <c r="J665" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I665" t="inlineStr"/>
+      <c r="J665" t="inlineStr"/>
       <c r="K665" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23039,14 +22727,10 @@
         <v>-3516.175988310758</v>
       </c>
       <c r="H666" t="n">
-        <v>1</v>
-      </c>
-      <c r="I666" t="n">
-        <v>161100</v>
-      </c>
-      <c r="J666" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I666" t="inlineStr"/>
+      <c r="J666" t="inlineStr"/>
       <c r="K666" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23080,14 +22764,10 @@
         <v>-3494.285388310758</v>
       </c>
       <c r="H667" t="n">
-        <v>1</v>
-      </c>
-      <c r="I667" t="n">
-        <v>160900</v>
-      </c>
-      <c r="J667" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I667" t="inlineStr"/>
+      <c r="J667" t="inlineStr"/>
       <c r="K667" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23121,14 +22801,10 @@
         <v>-3459.138488310758</v>
       </c>
       <c r="H668" t="n">
-        <v>1</v>
-      </c>
-      <c r="I668" t="n">
-        <v>161100</v>
-      </c>
-      <c r="J668" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I668" t="inlineStr"/>
+      <c r="J668" t="inlineStr"/>
       <c r="K668" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23162,14 +22838,10 @@
         <v>-3459.193488310757</v>
       </c>
       <c r="H669" t="n">
-        <v>1</v>
-      </c>
-      <c r="I669" t="n">
-        <v>161200</v>
-      </c>
-      <c r="J669" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I669" t="inlineStr"/>
+      <c r="J669" t="inlineStr"/>
       <c r="K669" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23203,14 +22875,10 @@
         <v>-3281.863488310757</v>
       </c>
       <c r="H670" t="n">
-        <v>1</v>
-      </c>
-      <c r="I670" t="n">
-        <v>161100</v>
-      </c>
-      <c r="J670" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I670" t="inlineStr"/>
+      <c r="J670" t="inlineStr"/>
       <c r="K670" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23244,14 +22912,10 @@
         <v>-3257.278988310758</v>
       </c>
       <c r="H671" t="n">
-        <v>1</v>
-      </c>
-      <c r="I671" t="n">
-        <v>161200</v>
-      </c>
-      <c r="J671" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I671" t="inlineStr"/>
+      <c r="J671" t="inlineStr"/>
       <c r="K671" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23285,14 +22949,10 @@
         <v>-3257.278988310758</v>
       </c>
       <c r="H672" t="n">
-        <v>1</v>
-      </c>
-      <c r="I672" t="n">
-        <v>161400</v>
-      </c>
-      <c r="J672" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I672" t="inlineStr"/>
+      <c r="J672" t="inlineStr"/>
       <c r="K672" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23326,14 +22986,10 @@
         <v>-3244.248988310757</v>
       </c>
       <c r="H673" t="n">
-        <v>1</v>
-      </c>
-      <c r="I673" t="n">
-        <v>161400</v>
-      </c>
-      <c r="J673" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I673" t="inlineStr"/>
+      <c r="J673" t="inlineStr"/>
       <c r="K673" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23367,14 +23023,10 @@
         <v>-3203.709582370163</v>
       </c>
       <c r="H674" t="n">
-        <v>1</v>
-      </c>
-      <c r="I674" t="n">
-        <v>161600</v>
-      </c>
-      <c r="J674" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I674" t="inlineStr"/>
+      <c r="J674" t="inlineStr"/>
       <c r="K674" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23408,14 +23060,10 @@
         <v>-3203.709582370163</v>
       </c>
       <c r="H675" t="n">
-        <v>1</v>
-      </c>
-      <c r="I675" t="n">
-        <v>161700</v>
-      </c>
-      <c r="J675" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I675" t="inlineStr"/>
+      <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23449,14 +23097,10 @@
         <v>-3215.049582370164</v>
       </c>
       <c r="H676" t="n">
-        <v>1</v>
-      </c>
-      <c r="I676" t="n">
-        <v>161700</v>
-      </c>
-      <c r="J676" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I676" t="inlineStr"/>
+      <c r="J676" t="inlineStr"/>
       <c r="K676" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23493,9 +23137,7 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J677" t="inlineStr"/>
       <c r="K677" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23532,9 +23174,7 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J678" t="inlineStr"/>
       <c r="K678" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23571,9 +23211,7 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J679" t="inlineStr"/>
       <c r="K679" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23610,9 +23248,7 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J680" t="inlineStr"/>
       <c r="K680" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23646,14 +23282,10 @@
         <v>-3191.367582370164</v>
       </c>
       <c r="H681" t="n">
-        <v>1</v>
-      </c>
-      <c r="I681" t="n">
-        <v>161500</v>
-      </c>
-      <c r="J681" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I681" t="inlineStr"/>
+      <c r="J681" t="inlineStr"/>
       <c r="K681" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23690,9 +23322,7 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J682" t="inlineStr"/>
       <c r="K682" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23729,9 +23359,7 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J683" t="inlineStr"/>
       <c r="K683" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23768,9 +23396,7 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J684" t="inlineStr"/>
       <c r="K684" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23807,9 +23433,7 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23846,9 +23470,7 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J686" t="inlineStr"/>
       <c r="K686" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23885,9 +23507,7 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J687" t="inlineStr"/>
       <c r="K687" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23924,9 +23544,7 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J688" t="inlineStr"/>
       <c r="K688" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23963,9 +23581,7 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J689" t="inlineStr"/>
       <c r="K689" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24002,9 +23618,7 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J690" t="inlineStr"/>
       <c r="K690" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24041,9 +23655,7 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24080,9 +23692,7 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J692" t="inlineStr"/>
       <c r="K692" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24119,9 +23729,7 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J693" t="inlineStr"/>
       <c r="K693" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24158,9 +23766,7 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24197,9 +23803,7 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24236,9 +23840,7 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J696" t="inlineStr"/>
       <c r="K696" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24275,9 +23877,7 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24314,9 +23914,7 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24353,9 +23951,7 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J699" t="inlineStr"/>
       <c r="K699" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24392,9 +23988,7 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J700" t="inlineStr"/>
       <c r="K700" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24431,9 +24025,7 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J701" t="inlineStr"/>
       <c r="K701" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24470,9 +24062,7 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J702" t="inlineStr"/>
       <c r="K702" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24509,9 +24099,7 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J703" t="inlineStr"/>
       <c r="K703" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24548,9 +24136,7 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J704" t="inlineStr"/>
       <c r="K704" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24587,9 +24173,7 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J705" t="inlineStr"/>
       <c r="K705" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24626,9 +24210,7 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J706" t="inlineStr"/>
       <c r="K706" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24665,9 +24247,7 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J707" t="inlineStr"/>
       <c r="K707" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24704,9 +24284,7 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J708" t="inlineStr"/>
       <c r="K708" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24743,9 +24321,7 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J709" t="inlineStr"/>
       <c r="K709" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24782,9 +24358,7 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J710" t="inlineStr"/>
       <c r="K710" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24821,9 +24395,7 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J711" t="inlineStr"/>
       <c r="K711" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24860,9 +24432,7 @@
         <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J712" t="inlineStr"/>
       <c r="K712" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24899,9 +24469,7 @@
         <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J713" t="inlineStr"/>
       <c r="K713" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24938,9 +24506,7 @@
         <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J714" t="inlineStr"/>
       <c r="K714" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24974,14 +24540,10 @@
         <v>-2907.488282370162</v>
       </c>
       <c r="H715" t="n">
-        <v>1</v>
-      </c>
-      <c r="I715" t="n">
-        <v>161600</v>
-      </c>
-      <c r="J715" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I715" t="inlineStr"/>
+      <c r="J715" t="inlineStr"/>
       <c r="K715" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25015,14 +24577,10 @@
         <v>-2907.488282370162</v>
       </c>
       <c r="H716" t="n">
-        <v>1</v>
-      </c>
-      <c r="I716" t="n">
-        <v>161800</v>
-      </c>
-      <c r="J716" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I716" t="inlineStr"/>
+      <c r="J716" t="inlineStr"/>
       <c r="K716" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25056,14 +24614,10 @@
         <v>-3030.461882370162</v>
       </c>
       <c r="H717" t="n">
-        <v>1</v>
-      </c>
-      <c r="I717" t="n">
-        <v>161800</v>
-      </c>
-      <c r="J717" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I717" t="inlineStr"/>
+      <c r="J717" t="inlineStr"/>
       <c r="K717" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25097,14 +24651,10 @@
         <v>-3030.461882370162</v>
       </c>
       <c r="H718" t="n">
-        <v>1</v>
-      </c>
-      <c r="I718" t="n">
-        <v>161600</v>
-      </c>
-      <c r="J718" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I718" t="inlineStr"/>
+      <c r="J718" t="inlineStr"/>
       <c r="K718" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25138,14 +24688,10 @@
         <v>-3030.148982370162</v>
       </c>
       <c r="H719" t="n">
-        <v>1</v>
-      </c>
-      <c r="I719" t="n">
-        <v>161600</v>
-      </c>
-      <c r="J719" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I719" t="inlineStr"/>
+      <c r="J719" t="inlineStr"/>
       <c r="K719" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25182,9 +24728,7 @@
         <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J720" t="inlineStr"/>
       <c r="K720" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25221,9 +24765,7 @@
         <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J721" t="inlineStr"/>
       <c r="K721" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25260,9 +24802,7 @@
         <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J722" t="inlineStr"/>
       <c r="K722" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25299,9 +24839,7 @@
         <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J723" t="inlineStr"/>
       <c r="K723" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25338,9 +24876,7 @@
         <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J724" t="inlineStr"/>
       <c r="K724" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25377,9 +24913,7 @@
         <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J725" t="inlineStr"/>
       <c r="K725" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25416,9 +24950,7 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J726" t="inlineStr"/>
       <c r="K726" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25455,9 +24987,7 @@
         <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J727" t="inlineStr"/>
       <c r="K727" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25494,9 +25024,7 @@
         <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J728" t="inlineStr"/>
       <c r="K728" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25533,9 +25061,7 @@
         <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J729" t="inlineStr"/>
       <c r="K729" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25572,9 +25098,7 @@
         <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J730" t="inlineStr"/>
       <c r="K730" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25611,9 +25135,7 @@
         <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
-      <c r="J731" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J731" t="inlineStr"/>
       <c r="K731" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25650,9 +25172,7 @@
         <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
-      <c r="J732" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J732" t="inlineStr"/>
       <c r="K732" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25689,9 +25209,7 @@
         <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
-      <c r="J733" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J733" t="inlineStr"/>
       <c r="K733" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25728,9 +25246,7 @@
         <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
-      <c r="J734" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J734" t="inlineStr"/>
       <c r="K734" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25767,9 +25283,7 @@
         <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
-      <c r="J735" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J735" t="inlineStr"/>
       <c r="K735" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25806,9 +25320,7 @@
         <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
-      <c r="J736" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J736" t="inlineStr"/>
       <c r="K736" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25845,9 +25357,7 @@
         <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
-      <c r="J737" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J737" t="inlineStr"/>
       <c r="K737" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25884,9 +25394,7 @@
         <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J738" t="inlineStr"/>
       <c r="K738" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25923,9 +25431,7 @@
         <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
-      <c r="J739" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J739" t="inlineStr"/>
       <c r="K739" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25962,9 +25468,7 @@
         <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
-      <c r="J740" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J740" t="inlineStr"/>
       <c r="K740" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26001,9 +25505,7 @@
         <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
-      <c r="J741" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J741" t="inlineStr"/>
       <c r="K741" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26040,9 +25542,7 @@
         <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
-      <c r="J742" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J742" t="inlineStr"/>
       <c r="K742" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26079,9 +25579,7 @@
         <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
-      <c r="J743" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J743" t="inlineStr"/>
       <c r="K743" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26118,9 +25616,7 @@
         <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
-      <c r="J744" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J744" t="inlineStr"/>
       <c r="K744" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26157,9 +25653,7 @@
         <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
-      <c r="J745" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J745" t="inlineStr"/>
       <c r="K745" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26196,9 +25690,7 @@
         <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J746" t="inlineStr"/>
       <c r="K746" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26232,20 +25724,16 @@
         <v>-2515.337335572133</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J747" t="inlineStr"/>
       <c r="K747" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L747" t="n">
-        <v>1</v>
-      </c>
+      <c r="L747" t="inlineStr"/>
       <c r="M747" t="inlineStr"/>
     </row>
     <row r="748">
@@ -26271,17 +25759,11 @@
         <v>-2583.602935572133</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
-      <c r="J748" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K748" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J748" t="inlineStr"/>
+      <c r="K748" t="inlineStr"/>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -26310,17 +25792,11 @@
         <v>-2583.602935572133</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
-      <c r="J749" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K749" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J749" t="inlineStr"/>
+      <c r="K749" t="inlineStr"/>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -26349,17 +25825,11 @@
         <v>-2583.602935572133</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
-      <c r="J750" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K750" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J750" t="inlineStr"/>
+      <c r="K750" t="inlineStr"/>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -26388,17 +25858,11 @@
         <v>-2583.602935572133</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
-      <c r="J751" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K751" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J751" t="inlineStr"/>
+      <c r="K751" t="inlineStr"/>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -26430,14 +25894,8 @@
         <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K752" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J752" t="inlineStr"/>
+      <c r="K752" t="inlineStr"/>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -26469,14 +25927,8 @@
         <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
-      <c r="J753" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K753" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J753" t="inlineStr"/>
+      <c r="K753" t="inlineStr"/>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -26508,14 +25960,8 @@
         <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
-      <c r="J754" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K754" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J754" t="inlineStr"/>
+      <c r="K754" t="inlineStr"/>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -26547,14 +25993,8 @@
         <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
-      <c r="J755" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K755" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J755" t="inlineStr"/>
+      <c r="K755" t="inlineStr"/>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -26586,14 +26026,8 @@
         <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K756" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J756" t="inlineStr"/>
+      <c r="K756" t="inlineStr"/>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -26622,17 +26056,11 @@
         <v>-2576.852430278461</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I757" t="inlineStr"/>
-      <c r="J757" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K757" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J757" t="inlineStr"/>
+      <c r="K757" t="inlineStr"/>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -26661,17 +26089,11 @@
         <v>-2580.267230278461</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I758" t="inlineStr"/>
-      <c r="J758" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K758" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J758" t="inlineStr"/>
+      <c r="K758" t="inlineStr"/>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -26700,17 +26122,11 @@
         <v>-2579.567730278461</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K759" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J759" t="inlineStr"/>
+      <c r="K759" t="inlineStr"/>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -26739,17 +26155,11 @@
         <v>-2579.567730278461</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K760" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J760" t="inlineStr"/>
+      <c r="K760" t="inlineStr"/>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -26778,17 +26188,11 @@
         <v>-2583.185948012451</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K761" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J761" t="inlineStr"/>
+      <c r="K761" t="inlineStr"/>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -26817,17 +26221,11 @@
         <v>-2670.485648012451</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I762" t="inlineStr"/>
-      <c r="J762" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K762" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J762" t="inlineStr"/>
+      <c r="K762" t="inlineStr"/>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -26856,17 +26254,11 @@
         <v>-2670.485648012451</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K763" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J763" t="inlineStr"/>
+      <c r="K763" t="inlineStr"/>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -26895,17 +26287,11 @@
         <v>-2600.902348012452</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I764" t="inlineStr"/>
-      <c r="J764" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K764" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J764" t="inlineStr"/>
+      <c r="K764" t="inlineStr"/>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -26934,17 +26320,11 @@
         <v>-2324.455448012452</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I765" t="inlineStr"/>
-      <c r="J765" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K765" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J765" t="inlineStr"/>
+      <c r="K765" t="inlineStr"/>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -26973,17 +26353,11 @@
         <v>-2133.469605761529</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K766" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J766" t="inlineStr"/>
+      <c r="K766" t="inlineStr"/>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -27012,17 +26386,11 @@
         <v>-2468.644705761529</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I767" t="inlineStr"/>
-      <c r="J767" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K767" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J767" t="inlineStr"/>
+      <c r="K767" t="inlineStr"/>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -27051,17 +26419,11 @@
         <v>-2468.644705761529</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I768" t="inlineStr"/>
-      <c r="J768" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K768" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J768" t="inlineStr"/>
+      <c r="K768" t="inlineStr"/>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -27090,17 +26452,11 @@
         <v>-2468.644705761529</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I769" t="inlineStr"/>
-      <c r="J769" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K769" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J769" t="inlineStr"/>
+      <c r="K769" t="inlineStr"/>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -27129,17 +26485,11 @@
         <v>-2510.740405761529</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I770" t="inlineStr"/>
-      <c r="J770" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K770" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J770" t="inlineStr"/>
+      <c r="K770" t="inlineStr"/>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -27168,17 +26518,11 @@
         <v>-2758.849205761529</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I771" t="inlineStr"/>
-      <c r="J771" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K771" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J771" t="inlineStr"/>
+      <c r="K771" t="inlineStr"/>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -27207,17 +26551,11 @@
         <v>-2788.333805761529</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I772" t="inlineStr"/>
-      <c r="J772" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K772" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J772" t="inlineStr"/>
+      <c r="K772" t="inlineStr"/>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -27246,17 +26584,11 @@
         <v>-2788.333805761529</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I773" t="inlineStr"/>
-      <c r="J773" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K773" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J773" t="inlineStr"/>
+      <c r="K773" t="inlineStr"/>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -27285,17 +26617,11 @@
         <v>-2767.762420197063</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I774" t="inlineStr"/>
-      <c r="J774" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K774" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J774" t="inlineStr"/>
+      <c r="K774" t="inlineStr"/>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -27324,17 +26650,11 @@
         <v>-3391.075420197063</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I775" t="inlineStr"/>
-      <c r="J775" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K775" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J775" t="inlineStr"/>
+      <c r="K775" t="inlineStr"/>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -27363,17 +26683,11 @@
         <v>-3391.075420197063</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I776" t="inlineStr"/>
-      <c r="J776" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K776" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J776" t="inlineStr"/>
+      <c r="K776" t="inlineStr"/>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -27402,17 +26716,11 @@
         <v>-3605.878320197063</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I777" t="inlineStr"/>
-      <c r="J777" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K777" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J777" t="inlineStr"/>
+      <c r="K777" t="inlineStr"/>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -27444,14 +26752,8 @@
         <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
-      <c r="J778" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K778" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J778" t="inlineStr"/>
+      <c r="K778" t="inlineStr"/>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -27483,14 +26785,8 @@
         <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
-      <c r="J779" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K779" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J779" t="inlineStr"/>
+      <c r="K779" t="inlineStr"/>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -27522,14 +26818,8 @@
         <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
-      <c r="J780" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K780" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J780" t="inlineStr"/>
+      <c r="K780" t="inlineStr"/>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -27561,14 +26851,8 @@
         <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
-      <c r="J781" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K781" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J781" t="inlineStr"/>
+      <c r="K781" t="inlineStr"/>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -27600,14 +26884,8 @@
         <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
-      <c r="J782" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K782" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J782" t="inlineStr"/>
+      <c r="K782" t="inlineStr"/>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -27636,19 +26914,11 @@
         <v>-3550.422620197063</v>
       </c>
       <c r="H783" t="n">
-        <v>1</v>
-      </c>
-      <c r="I783" t="n">
-        <v>161700</v>
-      </c>
-      <c r="J783" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K783" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I783" t="inlineStr"/>
+      <c r="J783" t="inlineStr"/>
+      <c r="K783" t="inlineStr"/>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -27677,19 +26947,11 @@
         <v>-3554.000795583581</v>
       </c>
       <c r="H784" t="n">
-        <v>1</v>
-      </c>
-      <c r="I784" t="n">
-        <v>161700</v>
-      </c>
-      <c r="J784" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K784" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I784" t="inlineStr"/>
+      <c r="J784" t="inlineStr"/>
+      <c r="K784" t="inlineStr"/>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -27718,19 +26980,11 @@
         <v>-3554.000795583581</v>
       </c>
       <c r="H785" t="n">
-        <v>1</v>
-      </c>
-      <c r="I785" t="n">
-        <v>161600</v>
-      </c>
-      <c r="J785" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K785" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I785" t="inlineStr"/>
+      <c r="J785" t="inlineStr"/>
+      <c r="K785" t="inlineStr"/>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -27759,19 +27013,11 @@
         <v>-3549.085295583581</v>
       </c>
       <c r="H786" t="n">
-        <v>1</v>
-      </c>
-      <c r="I786" t="n">
-        <v>161600</v>
-      </c>
-      <c r="J786" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K786" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I786" t="inlineStr"/>
+      <c r="J786" t="inlineStr"/>
+      <c r="K786" t="inlineStr"/>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -27800,19 +27046,11 @@
         <v>-3567.035295583581</v>
       </c>
       <c r="H787" t="n">
-        <v>1</v>
-      </c>
-      <c r="I787" t="n">
-        <v>161800</v>
-      </c>
-      <c r="J787" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K787" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I787" t="inlineStr"/>
+      <c r="J787" t="inlineStr"/>
+      <c r="K787" t="inlineStr"/>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -27844,14 +27082,8 @@
         <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
-      <c r="J788" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K788" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J788" t="inlineStr"/>
+      <c r="K788" t="inlineStr"/>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -27883,14 +27115,8 @@
         <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
-      <c r="J789" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K789" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J789" t="inlineStr"/>
+      <c r="K789" t="inlineStr"/>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -27922,14 +27148,8 @@
         <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
-      <c r="J790" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K790" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J790" t="inlineStr"/>
+      <c r="K790" t="inlineStr"/>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -27961,14 +27181,8 @@
         <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
-      <c r="J791" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K791" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J791" t="inlineStr"/>
+      <c r="K791" t="inlineStr"/>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -28000,14 +27214,8 @@
         <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
-      <c r="J792" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K792" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J792" t="inlineStr"/>
+      <c r="K792" t="inlineStr"/>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -28039,14 +27247,8 @@
         <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
-      <c r="J793" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K793" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J793" t="inlineStr"/>
+      <c r="K793" t="inlineStr"/>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -28078,14 +27280,8 @@
         <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
-      <c r="J794" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K794" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J794" t="inlineStr"/>
+      <c r="K794" t="inlineStr"/>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -28117,14 +27313,8 @@
         <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
-      <c r="J795" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K795" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J795" t="inlineStr"/>
+      <c r="K795" t="inlineStr"/>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -28156,14 +27346,8 @@
         <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
-      <c r="J796" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K796" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J796" t="inlineStr"/>
+      <c r="K796" t="inlineStr"/>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -28195,14 +27379,8 @@
         <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
-      <c r="J797" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K797" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J797" t="inlineStr"/>
+      <c r="K797" t="inlineStr"/>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -28234,14 +27412,8 @@
         <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
-      <c r="J798" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K798" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J798" t="inlineStr"/>
+      <c r="K798" t="inlineStr"/>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -28273,14 +27445,8 @@
         <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
-      <c r="J799" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K799" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J799" t="inlineStr"/>
+      <c r="K799" t="inlineStr"/>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -28312,14 +27478,8 @@
         <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
-      <c r="J800" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K800" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J800" t="inlineStr"/>
+      <c r="K800" t="inlineStr"/>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -28351,14 +27511,8 @@
         <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
-      <c r="J801" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K801" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J801" t="inlineStr"/>
+      <c r="K801" t="inlineStr"/>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -28390,14 +27544,8 @@
         <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
-      <c r="J802" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K802" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J802" t="inlineStr"/>
+      <c r="K802" t="inlineStr"/>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -28429,14 +27577,8 @@
         <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
-      <c r="J803" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K803" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J803" t="inlineStr"/>
+      <c r="K803" t="inlineStr"/>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -28468,14 +27610,8 @@
         <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
-      <c r="J804" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K804" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J804" t="inlineStr"/>
+      <c r="K804" t="inlineStr"/>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -28507,14 +27643,8 @@
         <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
-      <c r="J805" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K805" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J805" t="inlineStr"/>
+      <c r="K805" t="inlineStr"/>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -28546,14 +27676,8 @@
         <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
-      <c r="J806" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K806" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J806" t="inlineStr"/>
+      <c r="K806" t="inlineStr"/>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -28582,19 +27706,11 @@
         <v>-3605.78987767129</v>
       </c>
       <c r="H807" t="n">
-        <v>1</v>
-      </c>
-      <c r="I807" t="n">
-        <v>161500</v>
-      </c>
-      <c r="J807" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K807" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I807" t="inlineStr"/>
+      <c r="J807" t="inlineStr"/>
+      <c r="K807" t="inlineStr"/>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -28626,14 +27742,8 @@
         <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
-      <c r="J808" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K808" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J808" t="inlineStr"/>
+      <c r="K808" t="inlineStr"/>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -28665,14 +27775,8 @@
         <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
-      <c r="J809" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K809" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J809" t="inlineStr"/>
+      <c r="K809" t="inlineStr"/>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -28704,14 +27808,8 @@
         <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
-      <c r="J810" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K810" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J810" t="inlineStr"/>
+      <c r="K810" t="inlineStr"/>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -28743,14 +27841,8 @@
         <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
-      <c r="J811" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K811" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J811" t="inlineStr"/>
+      <c r="K811" t="inlineStr"/>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -28782,14 +27874,8 @@
         <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
-      <c r="J812" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K812" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J812" t="inlineStr"/>
+      <c r="K812" t="inlineStr"/>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -28821,14 +27907,8 @@
         <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
-      <c r="J813" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K813" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J813" t="inlineStr"/>
+      <c r="K813" t="inlineStr"/>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -28860,14 +27940,8 @@
         <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
-      <c r="J814" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K814" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J814" t="inlineStr"/>
+      <c r="K814" t="inlineStr"/>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -28899,14 +27973,8 @@
         <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
-      <c r="J815" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K815" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J815" t="inlineStr"/>
+      <c r="K815" t="inlineStr"/>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -28938,14 +28006,8 @@
         <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
-      <c r="J816" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K816" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J816" t="inlineStr"/>
+      <c r="K816" t="inlineStr"/>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -28977,14 +28039,8 @@
         <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
-      <c r="J817" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K817" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J817" t="inlineStr"/>
+      <c r="K817" t="inlineStr"/>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -29016,14 +28072,8 @@
         <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
-      <c r="J818" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K818" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J818" t="inlineStr"/>
+      <c r="K818" t="inlineStr"/>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -29055,14 +28105,8 @@
         <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
-      <c r="J819" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K819" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J819" t="inlineStr"/>
+      <c r="K819" t="inlineStr"/>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -29094,14 +28138,8 @@
         <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
-      <c r="J820" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K820" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J820" t="inlineStr"/>
+      <c r="K820" t="inlineStr"/>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -29133,14 +28171,8 @@
         <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
-      <c r="J821" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K821" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J821" t="inlineStr"/>
+      <c r="K821" t="inlineStr"/>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -29172,14 +28204,8 @@
         <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
-      <c r="J822" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K822" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J822" t="inlineStr"/>
+      <c r="K822" t="inlineStr"/>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -29211,14 +28237,8 @@
         <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
-      <c r="J823" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K823" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J823" t="inlineStr"/>
+      <c r="K823" t="inlineStr"/>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -29250,14 +28270,8 @@
         <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
-      <c r="J824" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K824" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J824" t="inlineStr"/>
+      <c r="K824" t="inlineStr"/>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -29289,14 +28303,8 @@
         <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
-      <c r="J825" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K825" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J825" t="inlineStr"/>
+      <c r="K825" t="inlineStr"/>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -29328,14 +28336,8 @@
         <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
-      <c r="J826" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K826" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J826" t="inlineStr"/>
+      <c r="K826" t="inlineStr"/>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -29367,14 +28369,8 @@
         <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
-      <c r="J827" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K827" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J827" t="inlineStr"/>
+      <c r="K827" t="inlineStr"/>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -29406,14 +28402,8 @@
         <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
-      <c r="J828" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K828" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J828" t="inlineStr"/>
+      <c r="K828" t="inlineStr"/>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -29445,14 +28435,8 @@
         <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
-      <c r="J829" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K829" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J829" t="inlineStr"/>
+      <c r="K829" t="inlineStr"/>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -29484,14 +28468,8 @@
         <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
-      <c r="J830" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K830" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J830" t="inlineStr"/>
+      <c r="K830" t="inlineStr"/>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -29523,14 +28501,8 @@
         <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
-      <c r="J831" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K831" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J831" t="inlineStr"/>
+      <c r="K831" t="inlineStr"/>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -29562,14 +28534,8 @@
         <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
-      <c r="J832" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K832" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J832" t="inlineStr"/>
+      <c r="K832" t="inlineStr"/>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -29601,14 +28567,8 @@
         <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
-      <c r="J833" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K833" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J833" t="inlineStr"/>
+      <c r="K833" t="inlineStr"/>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -29640,14 +28600,8 @@
         <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
-      <c r="J834" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K834" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J834" t="inlineStr"/>
+      <c r="K834" t="inlineStr"/>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -29679,14 +28633,8 @@
         <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
-      <c r="J835" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K835" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J835" t="inlineStr"/>
+      <c r="K835" t="inlineStr"/>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -29718,14 +28666,8 @@
         <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
-      <c r="J836" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K836" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J836" t="inlineStr"/>
+      <c r="K836" t="inlineStr"/>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -29757,14 +28699,8 @@
         <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
-      <c r="J837" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K837" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J837" t="inlineStr"/>
+      <c r="K837" t="inlineStr"/>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -29796,14 +28732,8 @@
         <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
-      <c r="J838" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K838" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J838" t="inlineStr"/>
+      <c r="K838" t="inlineStr"/>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -29835,14 +28765,8 @@
         <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
-      <c r="J839" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K839" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J839" t="inlineStr"/>
+      <c r="K839" t="inlineStr"/>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -29874,14 +28798,8 @@
         <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
-      <c r="J840" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K840" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J840" t="inlineStr"/>
+      <c r="K840" t="inlineStr"/>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -29913,14 +28831,8 @@
         <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
-      <c r="J841" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K841" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J841" t="inlineStr"/>
+      <c r="K841" t="inlineStr"/>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -29952,14 +28864,8 @@
         <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
-      <c r="J842" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K842" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J842" t="inlineStr"/>
+      <c r="K842" t="inlineStr"/>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -29991,14 +28897,8 @@
         <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
-      <c r="J843" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K843" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J843" t="inlineStr"/>
+      <c r="K843" t="inlineStr"/>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -30027,17 +28927,11 @@
         <v>-3419.21927409766</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I844" t="inlineStr"/>
-      <c r="J844" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K844" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J844" t="inlineStr"/>
+      <c r="K844" t="inlineStr"/>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -30066,17 +28960,11 @@
         <v>-3426.79027409766</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I845" t="inlineStr"/>
-      <c r="J845" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K845" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J845" t="inlineStr"/>
+      <c r="K845" t="inlineStr"/>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -30105,17 +28993,11 @@
         <v>-3401.35307409766</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I846" t="inlineStr"/>
-      <c r="J846" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K846" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J846" t="inlineStr"/>
+      <c r="K846" t="inlineStr"/>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -30144,17 +29026,11 @@
         <v>-3400.51617409766</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I847" t="inlineStr"/>
-      <c r="J847" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K847" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J847" t="inlineStr"/>
+      <c r="K847" t="inlineStr"/>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -30183,17 +29059,11 @@
         <v>-3420.47587409766</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I848" t="inlineStr"/>
-      <c r="J848" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K848" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J848" t="inlineStr"/>
+      <c r="K848" t="inlineStr"/>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -30222,17 +29092,11 @@
         <v>-3208.14507409766</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I849" t="inlineStr"/>
-      <c r="J849" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K849" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J849" t="inlineStr"/>
+      <c r="K849" t="inlineStr"/>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -30261,17 +29125,11 @@
         <v>-3282.75687409766</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I850" t="inlineStr"/>
-      <c r="J850" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K850" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J850" t="inlineStr"/>
+      <c r="K850" t="inlineStr"/>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -30300,17 +29158,11 @@
         <v>-3266.801474097661</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I851" t="inlineStr"/>
-      <c r="J851" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K851" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J851" t="inlineStr"/>
+      <c r="K851" t="inlineStr"/>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -30339,17 +29191,11 @@
         <v>-3266.801474097661</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I852" t="inlineStr"/>
-      <c r="J852" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K852" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J852" t="inlineStr"/>
+      <c r="K852" t="inlineStr"/>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -30378,17 +29224,11 @@
         <v>-3266.801474097661</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I853" t="inlineStr"/>
-      <c r="J853" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K853" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J853" t="inlineStr"/>
+      <c r="K853" t="inlineStr"/>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -30417,17 +29257,11 @@
         <v>-3314.764474097661</v>
       </c>
       <c r="H854" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I854" t="inlineStr"/>
-      <c r="J854" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K854" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J854" t="inlineStr"/>
+      <c r="K854" t="inlineStr"/>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -30456,17 +29290,11 @@
         <v>-3315.171574097661</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I855" t="inlineStr"/>
-      <c r="J855" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K855" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J855" t="inlineStr"/>
+      <c r="K855" t="inlineStr"/>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -30495,17 +29323,11 @@
         <v>-3315.171574097661</v>
       </c>
       <c r="H856" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I856" t="inlineStr"/>
-      <c r="J856" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K856" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J856" t="inlineStr"/>
+      <c r="K856" t="inlineStr"/>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -30534,17 +29356,11 @@
         <v>-3315.031974097661</v>
       </c>
       <c r="H857" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I857" t="inlineStr"/>
-      <c r="J857" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K857" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J857" t="inlineStr"/>
+      <c r="K857" t="inlineStr"/>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -30573,17 +29389,11 @@
         <v>-3315.031974097661</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I858" t="inlineStr"/>
-      <c r="J858" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K858" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J858" t="inlineStr"/>
+      <c r="K858" t="inlineStr"/>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -30612,17 +29422,11 @@
         <v>-3315.031974097661</v>
       </c>
       <c r="H859" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I859" t="inlineStr"/>
-      <c r="J859" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K859" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J859" t="inlineStr"/>
+      <c r="K859" t="inlineStr"/>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -30651,17 +29455,11 @@
         <v>-3426.253499784657</v>
       </c>
       <c r="H860" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I860" t="inlineStr"/>
-      <c r="J860" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K860" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J860" t="inlineStr"/>
+      <c r="K860" t="inlineStr"/>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -30690,17 +29488,11 @@
         <v>-3425.580799784657</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I861" t="inlineStr"/>
-      <c r="J861" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K861" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J861" t="inlineStr"/>
+      <c r="K861" t="inlineStr"/>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -30729,17 +29521,11 @@
         <v>-3458.161099784657</v>
       </c>
       <c r="H862" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I862" t="inlineStr"/>
-      <c r="J862" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K862" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J862" t="inlineStr"/>
+      <c r="K862" t="inlineStr"/>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -30768,17 +29554,11 @@
         <v>-3454.329699784657</v>
       </c>
       <c r="H863" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I863" t="inlineStr"/>
-      <c r="J863" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K863" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J863" t="inlineStr"/>
+      <c r="K863" t="inlineStr"/>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -30807,17 +29587,11 @@
         <v>-3454.016199784657</v>
       </c>
       <c r="H864" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I864" t="inlineStr"/>
-      <c r="J864" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K864" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J864" t="inlineStr"/>
+      <c r="K864" t="inlineStr"/>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -30846,17 +29620,11 @@
         <v>-3454.016199784657</v>
       </c>
       <c r="H865" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I865" t="inlineStr"/>
-      <c r="J865" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K865" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J865" t="inlineStr"/>
+      <c r="K865" t="inlineStr"/>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -30885,17 +29653,11 @@
         <v>-3454.016199784657</v>
       </c>
       <c r="H866" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I866" t="inlineStr"/>
-      <c r="J866" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K866" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J866" t="inlineStr"/>
+      <c r="K866" t="inlineStr"/>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -30924,17 +29686,11 @@
         <v>-3454.016199784657</v>
       </c>
       <c r="H867" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I867" t="inlineStr"/>
-      <c r="J867" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K867" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J867" t="inlineStr"/>
+      <c r="K867" t="inlineStr"/>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -30963,17 +29719,11 @@
         <v>-3454.016199784657</v>
       </c>
       <c r="H868" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I868" t="inlineStr"/>
-      <c r="J868" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K868" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J868" t="inlineStr"/>
+      <c r="K868" t="inlineStr"/>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -31002,17 +29752,11 @@
         <v>-3454.016199784657</v>
       </c>
       <c r="H869" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I869" t="inlineStr"/>
-      <c r="J869" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K869" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J869" t="inlineStr"/>
+      <c r="K869" t="inlineStr"/>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -31041,17 +29785,11 @@
         <v>-3454.016199784657</v>
       </c>
       <c r="H870" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I870" t="inlineStr"/>
-      <c r="J870" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K870" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J870" t="inlineStr"/>
+      <c r="K870" t="inlineStr"/>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -31080,17 +29818,11 @@
         <v>-3454.016199784657</v>
       </c>
       <c r="H871" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I871" t="inlineStr"/>
-      <c r="J871" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K871" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J871" t="inlineStr"/>
+      <c r="K871" t="inlineStr"/>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -31119,17 +29851,11 @@
         <v>-3454.246199784657</v>
       </c>
       <c r="H872" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I872" t="inlineStr"/>
-      <c r="J872" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K872" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J872" t="inlineStr"/>
+      <c r="K872" t="inlineStr"/>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -31158,17 +29884,11 @@
         <v>-3481.236199784656</v>
       </c>
       <c r="H873" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I873" t="inlineStr"/>
-      <c r="J873" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K873" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J873" t="inlineStr"/>
+      <c r="K873" t="inlineStr"/>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -31197,17 +29917,11 @@
         <v>-3453.722299784657</v>
       </c>
       <c r="H874" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I874" t="inlineStr"/>
-      <c r="J874" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K874" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J874" t="inlineStr"/>
+      <c r="K874" t="inlineStr"/>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -31236,17 +29950,11 @@
         <v>-3460.122499784657</v>
       </c>
       <c r="H875" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I875" t="inlineStr"/>
-      <c r="J875" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K875" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J875" t="inlineStr"/>
+      <c r="K875" t="inlineStr"/>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -31275,17 +29983,11 @@
         <v>-3460.122499784657</v>
       </c>
       <c r="H876" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I876" t="inlineStr"/>
-      <c r="J876" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K876" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J876" t="inlineStr"/>
+      <c r="K876" t="inlineStr"/>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -31314,17 +30016,11 @@
         <v>-3444.961699784657</v>
       </c>
       <c r="H877" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I877" t="inlineStr"/>
-      <c r="J877" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K877" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J877" t="inlineStr"/>
+      <c r="K877" t="inlineStr"/>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -31353,17 +30049,11 @@
         <v>-3444.961699784657</v>
       </c>
       <c r="H878" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I878" t="inlineStr"/>
-      <c r="J878" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K878" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J878" t="inlineStr"/>
+      <c r="K878" t="inlineStr"/>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -31392,17 +30082,11 @@
         <v>-3444.961699784657</v>
       </c>
       <c r="H879" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I879" t="inlineStr"/>
-      <c r="J879" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K879" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J879" t="inlineStr"/>
+      <c r="K879" t="inlineStr"/>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -31431,17 +30115,11 @@
         <v>-3533.641299784656</v>
       </c>
       <c r="H880" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I880" t="inlineStr"/>
-      <c r="J880" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K880" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J880" t="inlineStr"/>
+      <c r="K880" t="inlineStr"/>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -31470,17 +30148,11 @@
         <v>-3529.641399784657</v>
       </c>
       <c r="H881" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I881" t="inlineStr"/>
-      <c r="J881" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K881" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J881" t="inlineStr"/>
+      <c r="K881" t="inlineStr"/>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -31509,17 +30181,11 @@
         <v>-3529.641399784657</v>
       </c>
       <c r="H882" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I882" t="inlineStr"/>
-      <c r="J882" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K882" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J882" t="inlineStr"/>
+      <c r="K882" t="inlineStr"/>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -31548,17 +30214,11 @@
         <v>-3528.443499784657</v>
       </c>
       <c r="H883" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I883" t="inlineStr"/>
-      <c r="J883" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K883" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J883" t="inlineStr"/>
+      <c r="K883" t="inlineStr"/>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -31587,17 +30247,11 @@
         <v>-3611.636199784657</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I884" t="inlineStr"/>
-      <c r="J884" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K884" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J884" t="inlineStr"/>
+      <c r="K884" t="inlineStr"/>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -31626,17 +30280,11 @@
         <v>-3611.636199784657</v>
       </c>
       <c r="H885" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I885" t="inlineStr"/>
-      <c r="J885" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K885" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J885" t="inlineStr"/>
+      <c r="K885" t="inlineStr"/>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -31668,14 +30316,8 @@
         <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
-      <c r="J886" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K886" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J886" t="inlineStr"/>
+      <c r="K886" t="inlineStr"/>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -31704,17 +30346,11 @@
         <v>-3611.636199784657</v>
       </c>
       <c r="H887" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I887" t="inlineStr"/>
-      <c r="J887" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K887" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J887" t="inlineStr"/>
+      <c r="K887" t="inlineStr"/>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -31743,17 +30379,11 @@
         <v>-3611.636199784657</v>
       </c>
       <c r="H888" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I888" t="inlineStr"/>
-      <c r="J888" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K888" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J888" t="inlineStr"/>
+      <c r="K888" t="inlineStr"/>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -31785,14 +30415,8 @@
         <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
-      <c r="J889" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K889" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J889" t="inlineStr"/>
+      <c r="K889" t="inlineStr"/>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -31824,14 +30448,8 @@
         <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
-      <c r="J890" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K890" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J890" t="inlineStr"/>
+      <c r="K890" t="inlineStr"/>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -31863,14 +30481,8 @@
         <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
-      <c r="J891" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K891" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J891" t="inlineStr"/>
+      <c r="K891" t="inlineStr"/>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -31902,14 +30514,8 @@
         <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
-      <c r="J892" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K892" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J892" t="inlineStr"/>
+      <c r="K892" t="inlineStr"/>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -31941,14 +30547,8 @@
         <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
-      <c r="J893" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K893" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J893" t="inlineStr"/>
+      <c r="K893" t="inlineStr"/>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -31980,14 +30580,8 @@
         <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
-      <c r="J894" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K894" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J894" t="inlineStr"/>
+      <c r="K894" t="inlineStr"/>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -32019,14 +30613,8 @@
         <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
-      <c r="J895" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K895" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J895" t="inlineStr"/>
+      <c r="K895" t="inlineStr"/>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -32058,14 +30646,8 @@
         <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
-      <c r="J896" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K896" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J896" t="inlineStr"/>
+      <c r="K896" t="inlineStr"/>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -32097,14 +30679,8 @@
         <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
-      <c r="J897" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K897" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J897" t="inlineStr"/>
+      <c r="K897" t="inlineStr"/>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -32136,14 +30712,8 @@
         <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
-      <c r="J898" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K898" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J898" t="inlineStr"/>
+      <c r="K898" t="inlineStr"/>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -32175,14 +30745,8 @@
         <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
-      <c r="J899" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K899" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J899" t="inlineStr"/>
+      <c r="K899" t="inlineStr"/>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -32214,14 +30778,8 @@
         <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
-      <c r="J900" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K900" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J900" t="inlineStr"/>
+      <c r="K900" t="inlineStr"/>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -32253,14 +30811,8 @@
         <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
-      <c r="J901" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K901" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J901" t="inlineStr"/>
+      <c r="K901" t="inlineStr"/>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -32289,19 +30841,11 @@
         <v>-3790.196799784656</v>
       </c>
       <c r="H902" t="n">
-        <v>1</v>
-      </c>
-      <c r="I902" t="n">
-        <v>161700</v>
-      </c>
-      <c r="J902" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K902" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I902" t="inlineStr"/>
+      <c r="J902" t="inlineStr"/>
+      <c r="K902" t="inlineStr"/>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -32335,12 +30879,10 @@
       <c r="I903" t="n">
         <v>161600</v>
       </c>
-      <c r="J903" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J903" t="inlineStr"/>
       <c r="K903" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L903" t="n">
@@ -32376,9 +30918,7 @@
       <c r="I904" t="n">
         <v>161500</v>
       </c>
-      <c r="J904" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J904" t="inlineStr"/>
       <c r="K904" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32417,9 +30957,7 @@
       <c r="I905" t="n">
         <v>161700</v>
       </c>
-      <c r="J905" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J905" t="inlineStr"/>
       <c r="K905" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32458,9 +30996,7 @@
       <c r="I906" t="n">
         <v>161500</v>
       </c>
-      <c r="J906" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J906" t="inlineStr"/>
       <c r="K906" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32499,9 +31035,7 @@
       <c r="I907" t="n">
         <v>161600</v>
       </c>
-      <c r="J907" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J907" t="inlineStr"/>
       <c r="K907" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32540,9 +31074,7 @@
       <c r="I908" t="n">
         <v>161600</v>
       </c>
-      <c r="J908" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J908" t="inlineStr"/>
       <c r="K908" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32581,9 +31113,7 @@
       <c r="I909" t="n">
         <v>161600</v>
       </c>
-      <c r="J909" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J909" t="inlineStr"/>
       <c r="K909" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32622,9 +31152,7 @@
       <c r="I910" t="n">
         <v>161600</v>
       </c>
-      <c r="J910" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J910" t="inlineStr"/>
       <c r="K910" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32663,9 +31191,7 @@
       <c r="I911" t="n">
         <v>161600</v>
       </c>
-      <c r="J911" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J911" t="inlineStr"/>
       <c r="K911" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32704,9 +31230,7 @@
       <c r="I912" t="n">
         <v>161800</v>
       </c>
-      <c r="J912" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J912" t="inlineStr"/>
       <c r="K912" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32740,12 +31264,12 @@
         <v>-3825.826299784656</v>
       </c>
       <c r="H913" t="n">
-        <v>0</v>
-      </c>
-      <c r="I913" t="inlineStr"/>
-      <c r="J913" t="n">
-        <v>161700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I913" t="n">
+        <v>161800</v>
+      </c>
+      <c r="J913" t="inlineStr"/>
       <c r="K913" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32779,12 +31303,12 @@
         <v>-3837.693099784656</v>
       </c>
       <c r="H914" t="n">
-        <v>0</v>
-      </c>
-      <c r="I914" t="inlineStr"/>
-      <c r="J914" t="n">
+        <v>1</v>
+      </c>
+      <c r="I914" t="n">
         <v>161700</v>
       </c>
+      <c r="J914" t="inlineStr"/>
       <c r="K914" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32818,12 +31342,12 @@
         <v>-3828.569699784656</v>
       </c>
       <c r="H915" t="n">
-        <v>0</v>
-      </c>
-      <c r="I915" t="inlineStr"/>
-      <c r="J915" t="n">
-        <v>161700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I915" t="n">
+        <v>161600</v>
+      </c>
+      <c r="J915" t="inlineStr"/>
       <c r="K915" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32857,12 +31381,12 @@
         <v>-3840.035099784656</v>
       </c>
       <c r="H916" t="n">
-        <v>0</v>
-      </c>
-      <c r="I916" t="inlineStr"/>
-      <c r="J916" t="n">
+        <v>1</v>
+      </c>
+      <c r="I916" t="n">
         <v>161700</v>
       </c>
+      <c r="J916" t="inlineStr"/>
       <c r="K916" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32901,9 +31425,7 @@
       <c r="I917" t="n">
         <v>161600</v>
       </c>
-      <c r="J917" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J917" t="inlineStr"/>
       <c r="K917" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32942,9 +31464,7 @@
       <c r="I918" t="n">
         <v>161600</v>
       </c>
-      <c r="J918" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J918" t="inlineStr"/>
       <c r="K918" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32981,9 +31501,7 @@
         <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
-      <c r="J919" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J919" t="inlineStr"/>
       <c r="K919" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33020,9 +31538,7 @@
         <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
-      <c r="J920" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J920" t="inlineStr"/>
       <c r="K920" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33059,9 +31575,7 @@
         <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
-      <c r="J921" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J921" t="inlineStr"/>
       <c r="K921" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33098,9 +31612,7 @@
         <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
-      <c r="J922" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J922" t="inlineStr"/>
       <c r="K922" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33137,9 +31649,7 @@
         <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
-      <c r="J923" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J923" t="inlineStr"/>
       <c r="K923" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33176,9 +31686,7 @@
         <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
-      <c r="J924" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J924" t="inlineStr"/>
       <c r="K924" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33215,9 +31723,7 @@
         <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
-      <c r="J925" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J925" t="inlineStr"/>
       <c r="K925" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33254,9 +31760,7 @@
         <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
-      <c r="J926" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J926" t="inlineStr"/>
       <c r="K926" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33293,9 +31797,7 @@
         <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
-      <c r="J927" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J927" t="inlineStr"/>
       <c r="K927" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33332,9 +31834,7 @@
         <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
-      <c r="J928" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J928" t="inlineStr"/>
       <c r="K928" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33371,9 +31871,7 @@
         <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
-      <c r="J929" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J929" t="inlineStr"/>
       <c r="K929" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33410,9 +31908,7 @@
         <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
-      <c r="J930" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J930" t="inlineStr"/>
       <c r="K930" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33449,9 +31945,7 @@
         <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
-      <c r="J931" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J931" t="inlineStr"/>
       <c r="K931" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33488,9 +31982,7 @@
         <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
-      <c r="J932" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J932" t="inlineStr"/>
       <c r="K932" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33527,9 +32019,7 @@
         <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
-      <c r="J933" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J933" t="inlineStr"/>
       <c r="K933" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33566,9 +32056,7 @@
         <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
-      <c r="J934" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J934" t="inlineStr"/>
       <c r="K934" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33605,9 +32093,7 @@
         <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
-      <c r="J935" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J935" t="inlineStr"/>
       <c r="K935" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33644,9 +32130,7 @@
         <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
-      <c r="J936" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J936" t="inlineStr"/>
       <c r="K936" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33683,9 +32167,7 @@
         <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
-      <c r="J937" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J937" t="inlineStr"/>
       <c r="K937" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33722,9 +32204,7 @@
         <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
-      <c r="J938" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J938" t="inlineStr"/>
       <c r="K938" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33761,9 +32241,7 @@
         <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
-      <c r="J939" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J939" t="inlineStr"/>
       <c r="K939" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33800,9 +32278,7 @@
         <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
-      <c r="J940" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J940" t="inlineStr"/>
       <c r="K940" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33839,9 +32315,7 @@
         <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
-      <c r="J941" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J941" t="inlineStr"/>
       <c r="K941" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33878,9 +32352,7 @@
         <v>0</v>
       </c>
       <c r="I942" t="inlineStr"/>
-      <c r="J942" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J942" t="inlineStr"/>
       <c r="K942" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33917,9 +32389,7 @@
         <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
-      <c r="J943" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J943" t="inlineStr"/>
       <c r="K943" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33956,9 +32426,7 @@
         <v>0</v>
       </c>
       <c r="I944" t="inlineStr"/>
-      <c r="J944" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J944" t="inlineStr"/>
       <c r="K944" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33995,9 +32463,7 @@
         <v>0</v>
       </c>
       <c r="I945" t="inlineStr"/>
-      <c r="J945" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J945" t="inlineStr"/>
       <c r="K945" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34034,9 +32500,7 @@
         <v>0</v>
       </c>
       <c r="I946" t="inlineStr"/>
-      <c r="J946" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J946" t="inlineStr"/>
       <c r="K946" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34073,9 +32537,7 @@
         <v>0</v>
       </c>
       <c r="I947" t="inlineStr"/>
-      <c r="J947" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J947" t="inlineStr"/>
       <c r="K947" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34112,9 +32574,7 @@
         <v>0</v>
       </c>
       <c r="I948" t="inlineStr"/>
-      <c r="J948" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J948" t="inlineStr"/>
       <c r="K948" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34151,9 +32611,7 @@
         <v>0</v>
       </c>
       <c r="I949" t="inlineStr"/>
-      <c r="J949" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J949" t="inlineStr"/>
       <c r="K949" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34190,9 +32648,7 @@
         <v>0</v>
       </c>
       <c r="I950" t="inlineStr"/>
-      <c r="J950" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J950" t="inlineStr"/>
       <c r="K950" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34229,9 +32685,7 @@
         <v>0</v>
       </c>
       <c r="I951" t="inlineStr"/>
-      <c r="J951" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J951" t="inlineStr"/>
       <c r="K951" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34268,9 +32722,7 @@
         <v>0</v>
       </c>
       <c r="I952" t="inlineStr"/>
-      <c r="J952" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J952" t="inlineStr"/>
       <c r="K952" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34307,9 +32759,7 @@
         <v>0</v>
       </c>
       <c r="I953" t="inlineStr"/>
-      <c r="J953" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J953" t="inlineStr"/>
       <c r="K953" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34346,9 +32796,7 @@
         <v>0</v>
       </c>
       <c r="I954" t="inlineStr"/>
-      <c r="J954" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J954" t="inlineStr"/>
       <c r="K954" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34385,9 +32833,7 @@
         <v>0</v>
       </c>
       <c r="I955" t="inlineStr"/>
-      <c r="J955" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J955" t="inlineStr"/>
       <c r="K955" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34421,20 +32867,16 @@
         <v>-3831.366646760649</v>
       </c>
       <c r="H956" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I956" t="inlineStr"/>
-      <c r="J956" t="n">
-        <v>161700</v>
-      </c>
+      <c r="J956" t="inlineStr"/>
       <c r="K956" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L956" t="n">
-        <v>1</v>
-      </c>
+      <c r="L956" t="inlineStr"/>
       <c r="M956" t="inlineStr"/>
     </row>
     <row r="957">
@@ -34460,17 +32902,11 @@
         <v>-3929.001946760648</v>
       </c>
       <c r="H957" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I957" t="inlineStr"/>
-      <c r="J957" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K957" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J957" t="inlineStr"/>
+      <c r="K957" t="inlineStr"/>
       <c r="L957" t="n">
         <v>1</v>
       </c>
@@ -34499,17 +32935,11 @@
         <v>-3927.086146760648</v>
       </c>
       <c r="H958" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I958" t="inlineStr"/>
-      <c r="J958" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K958" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J958" t="inlineStr"/>
+      <c r="K958" t="inlineStr"/>
       <c r="L958" t="n">
         <v>1</v>
       </c>
@@ -34541,14 +32971,8 @@
         <v>0</v>
       </c>
       <c r="I959" t="inlineStr"/>
-      <c r="J959" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K959" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J959" t="inlineStr"/>
+      <c r="K959" t="inlineStr"/>
       <c r="L959" t="n">
         <v>1</v>
       </c>
@@ -34580,14 +33004,8 @@
         <v>0</v>
       </c>
       <c r="I960" t="inlineStr"/>
-      <c r="J960" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K960" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J960" t="inlineStr"/>
+      <c r="K960" t="inlineStr"/>
       <c r="L960" t="n">
         <v>1</v>
       </c>
@@ -34619,14 +33037,8 @@
         <v>0</v>
       </c>
       <c r="I961" t="inlineStr"/>
-      <c r="J961" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K961" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J961" t="inlineStr"/>
+      <c r="K961" t="inlineStr"/>
       <c r="L961" t="n">
         <v>1</v>
       </c>
@@ -34655,17 +33067,11 @@
         <v>-3921.393846760649</v>
       </c>
       <c r="H962" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I962" t="inlineStr"/>
-      <c r="J962" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K962" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J962" t="inlineStr"/>
+      <c r="K962" t="inlineStr"/>
       <c r="L962" t="n">
         <v>1</v>
       </c>
@@ -34694,17 +33100,11 @@
         <v>-3920.095324470008</v>
       </c>
       <c r="H963" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I963" t="inlineStr"/>
-      <c r="J963" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K963" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J963" t="inlineStr"/>
+      <c r="K963" t="inlineStr"/>
       <c r="L963" t="n">
         <v>1</v>
       </c>
@@ -34733,17 +33133,11 @@
         <v>-3920.193824470008</v>
       </c>
       <c r="H964" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I964" t="inlineStr"/>
-      <c r="J964" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K964" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J964" t="inlineStr"/>
+      <c r="K964" t="inlineStr"/>
       <c r="L964" t="n">
         <v>1</v>
       </c>
@@ -34772,17 +33166,11 @@
         <v>-3914.829024470008</v>
       </c>
       <c r="H965" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I965" t="inlineStr"/>
-      <c r="J965" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K965" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J965" t="inlineStr"/>
+      <c r="K965" t="inlineStr"/>
       <c r="L965" t="n">
         <v>1</v>
       </c>
@@ -34811,17 +33199,11 @@
         <v>-3914.829024470008</v>
       </c>
       <c r="H966" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I966" t="inlineStr"/>
-      <c r="J966" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K966" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J966" t="inlineStr"/>
+      <c r="K966" t="inlineStr"/>
       <c r="L966" t="n">
         <v>1</v>
       </c>
@@ -34850,17 +33232,11 @@
         <v>-3914.839824470008</v>
       </c>
       <c r="H967" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I967" t="inlineStr"/>
-      <c r="J967" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K967" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J967" t="inlineStr"/>
+      <c r="K967" t="inlineStr"/>
       <c r="L967" t="n">
         <v>1</v>
       </c>
@@ -34889,17 +33265,11 @@
         <v>-3913.818624470008</v>
       </c>
       <c r="H968" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I968" t="inlineStr"/>
-      <c r="J968" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K968" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J968" t="inlineStr"/>
+      <c r="K968" t="inlineStr"/>
       <c r="L968" t="n">
         <v>1</v>
       </c>
@@ -34928,17 +33298,11 @@
         <v>-3915.749624470008</v>
       </c>
       <c r="H969" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I969" t="inlineStr"/>
-      <c r="J969" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K969" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J969" t="inlineStr"/>
+      <c r="K969" t="inlineStr"/>
       <c r="L969" t="n">
         <v>1</v>
       </c>
@@ -34967,17 +33331,11 @@
         <v>-3920.214924470008</v>
       </c>
       <c r="H970" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I970" t="inlineStr"/>
-      <c r="J970" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K970" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J970" t="inlineStr"/>
+      <c r="K970" t="inlineStr"/>
       <c r="L970" t="n">
         <v>1</v>
       </c>
@@ -35006,17 +33364,11 @@
         <v>-3920.214924470008</v>
       </c>
       <c r="H971" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I971" t="inlineStr"/>
-      <c r="J971" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K971" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J971" t="inlineStr"/>
+      <c r="K971" t="inlineStr"/>
       <c r="L971" t="n">
         <v>1</v>
       </c>
@@ -35045,17 +33397,11 @@
         <v>-3890.214924470008</v>
       </c>
       <c r="H972" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I972" t="inlineStr"/>
-      <c r="J972" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K972" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J972" t="inlineStr"/>
+      <c r="K972" t="inlineStr"/>
       <c r="L972" t="n">
         <v>1</v>
       </c>
@@ -35087,14 +33433,8 @@
         <v>0</v>
       </c>
       <c r="I973" t="inlineStr"/>
-      <c r="J973" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K973" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J973" t="inlineStr"/>
+      <c r="K973" t="inlineStr"/>
       <c r="L973" t="n">
         <v>1</v>
       </c>
@@ -35126,14 +33466,8 @@
         <v>0</v>
       </c>
       <c r="I974" t="inlineStr"/>
-      <c r="J974" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K974" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J974" t="inlineStr"/>
+      <c r="K974" t="inlineStr"/>
       <c r="L974" t="n">
         <v>1</v>
       </c>
@@ -35165,14 +33499,8 @@
         <v>0</v>
       </c>
       <c r="I975" t="inlineStr"/>
-      <c r="J975" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K975" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J975" t="inlineStr"/>
+      <c r="K975" t="inlineStr"/>
       <c r="L975" t="n">
         <v>1</v>
       </c>
@@ -35204,14 +33532,8 @@
         <v>0</v>
       </c>
       <c r="I976" t="inlineStr"/>
-      <c r="J976" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K976" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J976" t="inlineStr"/>
+      <c r="K976" t="inlineStr"/>
       <c r="L976" t="n">
         <v>1</v>
       </c>
@@ -35243,14 +33565,8 @@
         <v>0</v>
       </c>
       <c r="I977" t="inlineStr"/>
-      <c r="J977" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K977" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J977" t="inlineStr"/>
+      <c r="K977" t="inlineStr"/>
       <c r="L977" t="n">
         <v>1</v>
       </c>
@@ -35282,14 +33598,8 @@
         <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
-      <c r="J978" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K978" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J978" t="inlineStr"/>
+      <c r="K978" t="inlineStr"/>
       <c r="L978" t="n">
         <v>1</v>
       </c>
@@ -35321,14 +33631,8 @@
         <v>0</v>
       </c>
       <c r="I979" t="inlineStr"/>
-      <c r="J979" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K979" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J979" t="inlineStr"/>
+      <c r="K979" t="inlineStr"/>
       <c r="L979" t="n">
         <v>1</v>
       </c>
@@ -35360,14 +33664,8 @@
         <v>0</v>
       </c>
       <c r="I980" t="inlineStr"/>
-      <c r="J980" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K980" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J980" t="inlineStr"/>
+      <c r="K980" t="inlineStr"/>
       <c r="L980" t="n">
         <v>1</v>
       </c>
@@ -35396,19 +33694,11 @@
         <v>-3991.449524470008</v>
       </c>
       <c r="H981" t="n">
-        <v>1</v>
-      </c>
-      <c r="I981" t="n">
-        <v>161800</v>
-      </c>
-      <c r="J981" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K981" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I981" t="inlineStr"/>
+      <c r="J981" t="inlineStr"/>
+      <c r="K981" t="inlineStr"/>
       <c r="L981" t="n">
         <v>1</v>
       </c>
@@ -35437,19 +33727,11 @@
         <v>-3990.864124470008</v>
       </c>
       <c r="H982" t="n">
-        <v>1</v>
-      </c>
-      <c r="I982" t="n">
-        <v>161700</v>
-      </c>
-      <c r="J982" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K982" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I982" t="inlineStr"/>
+      <c r="J982" t="inlineStr"/>
+      <c r="K982" t="inlineStr"/>
       <c r="L982" t="n">
         <v>1</v>
       </c>
@@ -35478,19 +33760,11 @@
         <v>-3990.864124470008</v>
       </c>
       <c r="H983" t="n">
-        <v>1</v>
-      </c>
-      <c r="I983" t="n">
-        <v>161800</v>
-      </c>
-      <c r="J983" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K983" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I983" t="inlineStr"/>
+      <c r="J983" t="inlineStr"/>
+      <c r="K983" t="inlineStr"/>
       <c r="L983" t="n">
         <v>1</v>
       </c>
@@ -35519,19 +33793,11 @@
         <v>-3990.892324470009</v>
       </c>
       <c r="H984" t="n">
-        <v>1</v>
-      </c>
-      <c r="I984" t="n">
-        <v>161800</v>
-      </c>
-      <c r="J984" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K984" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I984" t="inlineStr"/>
+      <c r="J984" t="inlineStr"/>
+      <c r="K984" t="inlineStr"/>
       <c r="L984" t="n">
         <v>1</v>
       </c>
@@ -35560,19 +33826,11 @@
         <v>-3990.694924470009</v>
       </c>
       <c r="H985" t="n">
-        <v>1</v>
-      </c>
-      <c r="I985" t="n">
-        <v>161700</v>
-      </c>
-      <c r="J985" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K985" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I985" t="inlineStr"/>
+      <c r="J985" t="inlineStr"/>
+      <c r="K985" t="inlineStr"/>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -35601,19 +33859,11 @@
         <v>-3990.694924470009</v>
       </c>
       <c r="H986" t="n">
-        <v>1</v>
-      </c>
-      <c r="I986" t="n">
-        <v>161900</v>
-      </c>
-      <c r="J986" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K986" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I986" t="inlineStr"/>
+      <c r="J986" t="inlineStr"/>
+      <c r="K986" t="inlineStr"/>
       <c r="L986" t="n">
         <v>1</v>
       </c>
@@ -35645,14 +33895,8 @@
         <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
-      <c r="J987" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K987" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J987" t="inlineStr"/>
+      <c r="K987" t="inlineStr"/>
       <c r="L987" t="n">
         <v>1</v>
       </c>
@@ -35684,14 +33928,8 @@
         <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
-      <c r="J988" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K988" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J988" t="inlineStr"/>
+      <c r="K988" t="inlineStr"/>
       <c r="L988" t="n">
         <v>1</v>
       </c>
@@ -35723,14 +33961,8 @@
         <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
-      <c r="J989" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K989" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J989" t="inlineStr"/>
+      <c r="K989" t="inlineStr"/>
       <c r="L989" t="n">
         <v>1</v>
       </c>
@@ -35762,14 +33994,8 @@
         <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
-      <c r="J990" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K990" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J990" t="inlineStr"/>
+      <c r="K990" t="inlineStr"/>
       <c r="L990" t="n">
         <v>1</v>
       </c>
@@ -35801,14 +34027,8 @@
         <v>0</v>
       </c>
       <c r="I991" t="inlineStr"/>
-      <c r="J991" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K991" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J991" t="inlineStr"/>
+      <c r="K991" t="inlineStr"/>
       <c r="L991" t="n">
         <v>1</v>
       </c>
@@ -35840,14 +34060,8 @@
         <v>0</v>
       </c>
       <c r="I992" t="inlineStr"/>
-      <c r="J992" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K992" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J992" t="inlineStr"/>
+      <c r="K992" t="inlineStr"/>
       <c r="L992" t="n">
         <v>1</v>
       </c>
@@ -35879,14 +34093,8 @@
         <v>0</v>
       </c>
       <c r="I993" t="inlineStr"/>
-      <c r="J993" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K993" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J993" t="inlineStr"/>
+      <c r="K993" t="inlineStr"/>
       <c r="L993" t="n">
         <v>1</v>
       </c>
@@ -35918,14 +34126,8 @@
         <v>0</v>
       </c>
       <c r="I994" t="inlineStr"/>
-      <c r="J994" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K994" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J994" t="inlineStr"/>
+      <c r="K994" t="inlineStr"/>
       <c r="L994" t="n">
         <v>1</v>
       </c>
@@ -35957,14 +34159,8 @@
         <v>0</v>
       </c>
       <c r="I995" t="inlineStr"/>
-      <c r="J995" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K995" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J995" t="inlineStr"/>
+      <c r="K995" t="inlineStr"/>
       <c r="L995" t="n">
         <v>1</v>
       </c>
@@ -35996,14 +34192,8 @@
         <v>0</v>
       </c>
       <c r="I996" t="inlineStr"/>
-      <c r="J996" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K996" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J996" t="inlineStr"/>
+      <c r="K996" t="inlineStr"/>
       <c r="L996" t="n">
         <v>1</v>
       </c>
@@ -36035,14 +34225,8 @@
         <v>0</v>
       </c>
       <c r="I997" t="inlineStr"/>
-      <c r="J997" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K997" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J997" t="inlineStr"/>
+      <c r="K997" t="inlineStr"/>
       <c r="L997" t="n">
         <v>1</v>
       </c>
@@ -36074,14 +34258,8 @@
         <v>0</v>
       </c>
       <c r="I998" t="inlineStr"/>
-      <c r="J998" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K998" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J998" t="inlineStr"/>
+      <c r="K998" t="inlineStr"/>
       <c r="L998" t="n">
         <v>1</v>
       </c>
@@ -36113,14 +34291,8 @@
         <v>0</v>
       </c>
       <c r="I999" t="inlineStr"/>
-      <c r="J999" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K999" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J999" t="inlineStr"/>
+      <c r="K999" t="inlineStr"/>
       <c r="L999" t="n">
         <v>1</v>
       </c>
@@ -36152,14 +34324,8 @@
         <v>0</v>
       </c>
       <c r="I1000" t="inlineStr"/>
-      <c r="J1000" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K1000" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1000" t="inlineStr"/>
+      <c r="K1000" t="inlineStr"/>
       <c r="L1000" t="n">
         <v>1</v>
       </c>
@@ -36191,14 +34357,8 @@
         <v>0</v>
       </c>
       <c r="I1001" t="inlineStr"/>
-      <c r="J1001" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K1001" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1001" t="inlineStr"/>
+      <c r="K1001" t="inlineStr"/>
       <c r="L1001" t="n">
         <v>1</v>
       </c>
@@ -36230,20 +34390,14 @@
         <v>0</v>
       </c>
       <c r="I1002" t="inlineStr"/>
-      <c r="J1002" t="n">
-        <v>161700</v>
-      </c>
-      <c r="K1002" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1002" t="inlineStr"/>
+      <c r="K1002" t="inlineStr"/>
       <c r="L1002" t="n">
         <v>1</v>
       </c>
       <c r="M1002" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest ETH.xlsx
+++ b/BackTest/2020-01-14 BackTest ETH.xlsx
@@ -451,7 +451,7 @@
         <v>380.6241303440044</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>381.3873303440044</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>372.1467303440044</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>439.0644780532285</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>432.8513675397811</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>424.1829675397811</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>424.5138675397811</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>424.5138675397811</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>424.7137675397811</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>425.5283675397811</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>436.0081675397811</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>429.8465675397811</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>429.8465675397811</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>429.146467539781</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>425.5505675397811</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>425.5505675397811</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>425.5505675397811</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>421.7797675397811</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>421.7867675397811</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>421.7867675397811</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>433.1569675397811</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>430.4301675397811</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>433.6311675397811</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>422.8957675397812</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>405.1240675397811</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>288.9346145446711</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>288.9346145446711</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>288.9346145446711</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>288.9346145446711</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>288.9346145446711</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>286.0293145446711</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>286.5438145446711</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>286.5438145446711</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>286.5438145446711</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>286.5438145446711</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>287.0630145446711</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>287.0630145446711</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>1651.683196457401</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>2018.862596457401</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>2339.475596457401</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>2339.475596457401</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>2291.134496457401</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>2215.545196457401</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>2154.099296457401</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>2154.099296457401</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>2044.925296457401</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>2107.1452964574</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>2107.1452964574</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>2107.1452964574</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>2175.677496457401</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>2192.008696457401</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>2158.247496457401</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>2256.791096457401</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>2266.065596457401</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>2265.690496457401</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>2257.847496457401</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>2267.281696457401</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>2266.281696457401</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>2266.281696457401</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>2266.281696457401</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>2223.465910821369</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>2207.965910821369</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>2201.941210821369</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>2206.546210821369</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>2171.105010821369</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>2147.530510821369</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>2381.935870562743</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>2422.875870562743</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>2417.931270562744</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>2417.931270562744</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>2417.931270562744</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>2407.798970562743</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>2408.185870562743</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>2395.861770562743</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>2396.496270562744</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>2389.289770562744</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>2159.294770562744</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -19723,17 +19723,11 @@
         <v>-3839.955865386347</v>
       </c>
       <c r="H586" t="n">
-        <v>1</v>
-      </c>
-      <c r="I586" t="n">
-        <v>161200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -19762,17 +19756,11 @@
         <v>-3839.955865386347</v>
       </c>
       <c r="H587" t="n">
-        <v>1</v>
-      </c>
-      <c r="I587" t="n">
-        <v>161100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -19809,7 +19797,7 @@
       <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L588" t="n">
@@ -20542,9 +20530,11 @@
         <v>-3716.249465386347</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
-      </c>
-      <c r="I607" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I607" t="n">
+        <v>161400</v>
+      </c>
       <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr">
         <is>
@@ -20579,9 +20569,11 @@
         <v>-3716.249465386347</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
-      </c>
-      <c r="I608" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I608" t="n">
+        <v>161400</v>
+      </c>
       <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr">
         <is>
@@ -20616,9 +20608,11 @@
         <v>-3551.808788310759</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
-      </c>
-      <c r="I609" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I609" t="n">
+        <v>161400</v>
+      </c>
       <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr">
         <is>
@@ -20653,9 +20647,11 @@
         <v>-3551.808788310759</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
-      </c>
-      <c r="I610" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I610" t="n">
+        <v>161700</v>
+      </c>
       <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr">
         <is>
@@ -22392,9 +22388,11 @@
         <v>-3282.735088310758</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
-      </c>
-      <c r="I657" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I657" t="n">
+        <v>161100</v>
+      </c>
       <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr">
         <is>
@@ -22503,9 +22501,11 @@
         <v>-3514.836988310758</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
-      </c>
-      <c r="I660" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I660" t="n">
+        <v>161100</v>
+      </c>
       <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr">
         <is>
@@ -22540,9 +22540,11 @@
         <v>-3514.836988310758</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
-      </c>
-      <c r="I661" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I661" t="n">
+        <v>161000</v>
+      </c>
       <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr">
         <is>
@@ -22577,9 +22579,11 @@
         <v>-3498.665788310758</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
-      </c>
-      <c r="I662" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I662" t="n">
+        <v>161000</v>
+      </c>
       <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr">
         <is>
@@ -22614,9 +22618,11 @@
         <v>-3483.958588310758</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
-      </c>
-      <c r="I663" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I663" t="n">
+        <v>161100</v>
+      </c>
       <c r="J663" t="inlineStr"/>
       <c r="K663" t="inlineStr">
         <is>
@@ -22690,9 +22696,11 @@
         <v>-3482.460688310758</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
-      </c>
-      <c r="I665" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I665" t="n">
+        <v>161000</v>
+      </c>
       <c r="J665" t="inlineStr"/>
       <c r="K665" t="inlineStr">
         <is>
@@ -22727,9 +22735,11 @@
         <v>-3516.175988310758</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
-      </c>
-      <c r="I666" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I666" t="n">
+        <v>161100</v>
+      </c>
       <c r="J666" t="inlineStr"/>
       <c r="K666" t="inlineStr">
         <is>
@@ -22764,9 +22774,11 @@
         <v>-3494.285388310758</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
-      </c>
-      <c r="I667" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I667" t="n">
+        <v>160900</v>
+      </c>
       <c r="J667" t="inlineStr"/>
       <c r="K667" t="inlineStr">
         <is>
@@ -22801,9 +22813,11 @@
         <v>-3459.138488310758</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
-      </c>
-      <c r="I668" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I668" t="n">
+        <v>161100</v>
+      </c>
       <c r="J668" t="inlineStr"/>
       <c r="K668" t="inlineStr">
         <is>
@@ -22838,9 +22852,11 @@
         <v>-3459.193488310757</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
-      </c>
-      <c r="I669" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I669" t="n">
+        <v>161200</v>
+      </c>
       <c r="J669" t="inlineStr"/>
       <c r="K669" t="inlineStr">
         <is>
@@ -22875,9 +22891,11 @@
         <v>-3281.863488310757</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
-      </c>
-      <c r="I670" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I670" t="n">
+        <v>161100</v>
+      </c>
       <c r="J670" t="inlineStr"/>
       <c r="K670" t="inlineStr">
         <is>
@@ -22912,9 +22930,11 @@
         <v>-3257.278988310758</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
-      </c>
-      <c r="I671" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I671" t="n">
+        <v>161200</v>
+      </c>
       <c r="J671" t="inlineStr"/>
       <c r="K671" t="inlineStr">
         <is>
@@ -22949,9 +22969,11 @@
         <v>-3257.278988310758</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
-      </c>
-      <c r="I672" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I672" t="n">
+        <v>161400</v>
+      </c>
       <c r="J672" t="inlineStr"/>
       <c r="K672" t="inlineStr">
         <is>
@@ -22986,9 +23008,11 @@
         <v>-3244.248988310757</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
-      </c>
-      <c r="I673" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I673" t="n">
+        <v>161400</v>
+      </c>
       <c r="J673" t="inlineStr"/>
       <c r="K673" t="inlineStr">
         <is>
@@ -23023,9 +23047,11 @@
         <v>-3203.709582370163</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
-      </c>
-      <c r="I674" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I674" t="n">
+        <v>161600</v>
+      </c>
       <c r="J674" t="inlineStr"/>
       <c r="K674" t="inlineStr">
         <is>
@@ -25724,16 +25750,18 @@
         <v>-2515.337335572133</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
       <c r="K747" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L747" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L747" t="n">
+        <v>1</v>
+      </c>
       <c r="M747" t="inlineStr"/>
     </row>
     <row r="748">
@@ -25759,11 +25787,15 @@
         <v>-2583.602935572133</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -25792,11 +25824,15 @@
         <v>-2583.602935572133</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -25825,11 +25861,15 @@
         <v>-2583.602935572133</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -25858,11 +25898,15 @@
         <v>-2583.602935572133</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -25895,7 +25939,11 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -25928,7 +25976,11 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -25961,7 +26013,11 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -25994,7 +26050,11 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -26027,7 +26087,11 @@
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -26056,11 +26120,15 @@
         <v>-2576.852430278461</v>
       </c>
       <c r="H757" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -26089,11 +26157,15 @@
         <v>-2580.267230278461</v>
       </c>
       <c r="H758" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -26122,11 +26194,15 @@
         <v>-2579.567730278461</v>
       </c>
       <c r="H759" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -26155,11 +26231,15 @@
         <v>-2579.567730278461</v>
       </c>
       <c r="H760" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -26188,11 +26268,15 @@
         <v>-2583.185948012451</v>
       </c>
       <c r="H761" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -26221,11 +26305,15 @@
         <v>-2670.485648012451</v>
       </c>
       <c r="H762" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -26254,11 +26342,15 @@
         <v>-2670.485648012451</v>
       </c>
       <c r="H763" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -26287,11 +26379,15 @@
         <v>-2600.902348012452</v>
       </c>
       <c r="H764" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -26320,11 +26416,15 @@
         <v>-2324.455448012452</v>
       </c>
       <c r="H765" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -26353,11 +26453,15 @@
         <v>-2133.469605761529</v>
       </c>
       <c r="H766" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -26386,11 +26490,15 @@
         <v>-2468.644705761529</v>
       </c>
       <c r="H767" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -26419,11 +26527,15 @@
         <v>-2468.644705761529</v>
       </c>
       <c r="H768" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -26452,11 +26564,15 @@
         <v>-2468.644705761529</v>
       </c>
       <c r="H769" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -26485,11 +26601,15 @@
         <v>-2510.740405761529</v>
       </c>
       <c r="H770" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -26518,11 +26638,15 @@
         <v>-2758.849205761529</v>
       </c>
       <c r="H771" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -26551,11 +26675,15 @@
         <v>-2788.333805761529</v>
       </c>
       <c r="H772" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -26584,11 +26712,15 @@
         <v>-2788.333805761529</v>
       </c>
       <c r="H773" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -26617,11 +26749,15 @@
         <v>-2767.762420197063</v>
       </c>
       <c r="H774" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -26650,11 +26786,15 @@
         <v>-3391.075420197063</v>
       </c>
       <c r="H775" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -26683,11 +26823,15 @@
         <v>-3391.075420197063</v>
       </c>
       <c r="H776" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -26716,11 +26860,15 @@
         <v>-3605.878320197063</v>
       </c>
       <c r="H777" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -26753,7 +26901,11 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -26786,7 +26938,11 @@
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -26819,7 +26975,11 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -26852,7 +27012,11 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -26885,7 +27049,11 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -26918,7 +27086,11 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -26951,7 +27123,11 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -26984,7 +27160,11 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -27017,7 +27197,11 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -27050,7 +27234,11 @@
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -27083,7 +27271,11 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -27116,7 +27308,11 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -27149,7 +27345,11 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -27182,7 +27382,11 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -27215,7 +27419,11 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -27248,7 +27456,11 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -27281,7 +27493,11 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -27314,7 +27530,11 @@
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -27347,7 +27567,11 @@
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -27380,7 +27604,11 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -27413,7 +27641,11 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -27446,7 +27678,11 @@
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -27479,7 +27715,11 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -27512,7 +27752,11 @@
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
+      <c r="K801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -27545,7 +27789,11 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
+      <c r="K802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -27578,7 +27826,11 @@
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
+      <c r="K803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -27611,7 +27863,11 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr"/>
+      <c r="K804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -27644,7 +27900,11 @@
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr"/>
+      <c r="K805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -27677,7 +27937,11 @@
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr"/>
+      <c r="K806" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -27710,7 +27974,11 @@
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr"/>
+      <c r="K807" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -27743,7 +28011,11 @@
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr"/>
+      <c r="K808" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -27776,7 +28048,11 @@
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr"/>
+      <c r="K809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -27809,7 +28085,11 @@
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr"/>
+      <c r="K810" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -27842,7 +28122,11 @@
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr"/>
+      <c r="K811" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -27875,7 +28159,11 @@
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr"/>
+      <c r="K812" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -27908,7 +28196,11 @@
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr"/>
+      <c r="K813" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -27941,7 +28233,11 @@
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr"/>
+      <c r="K814" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -27974,7 +28270,11 @@
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr"/>
+      <c r="K815" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -28007,7 +28307,11 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr"/>
+      <c r="K816" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -28040,7 +28344,11 @@
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr"/>
+      <c r="K817" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -28073,7 +28381,11 @@
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr"/>
+      <c r="K818" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -28106,7 +28418,11 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr"/>
+      <c r="K819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -28139,7 +28455,11 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr"/>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -28172,7 +28492,11 @@
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr"/>
+      <c r="K821" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -28205,7 +28529,11 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr"/>
+      <c r="K822" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -28238,7 +28566,11 @@
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr"/>
+      <c r="K823" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -28271,7 +28603,11 @@
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr"/>
+      <c r="K824" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -28304,7 +28640,11 @@
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr"/>
+      <c r="K825" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -28337,7 +28677,11 @@
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr"/>
+      <c r="K826" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -28370,7 +28714,11 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr"/>
+      <c r="K827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -28403,7 +28751,11 @@
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr"/>
+      <c r="K828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -28436,7 +28788,11 @@
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr"/>
+      <c r="K829" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -28469,7 +28825,11 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr"/>
+      <c r="K830" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -28502,7 +28862,11 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr"/>
+      <c r="K831" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -28535,7 +28899,11 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr"/>
+      <c r="K832" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -28568,7 +28936,11 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr"/>
+      <c r="K833" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -28601,7 +28973,11 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr"/>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -28634,7 +29010,11 @@
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr"/>
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -28667,7 +29047,11 @@
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr"/>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -28700,7 +29084,11 @@
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr"/>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -28733,7 +29121,11 @@
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr"/>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -28766,7 +29158,11 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr"/>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -28799,7 +29195,11 @@
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr"/>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -28832,7 +29232,11 @@
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr"/>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -28865,7 +29269,11 @@
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr"/>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -28898,7 +29306,11 @@
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr"/>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -28927,11 +29339,15 @@
         <v>-3419.21927409766</v>
       </c>
       <c r="H844" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -28960,11 +29376,15 @@
         <v>-3426.79027409766</v>
       </c>
       <c r="H845" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -28993,11 +29413,15 @@
         <v>-3401.35307409766</v>
       </c>
       <c r="H846" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr"/>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -29026,11 +29450,15 @@
         <v>-3400.51617409766</v>
       </c>
       <c r="H847" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr"/>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -29059,11 +29487,15 @@
         <v>-3420.47587409766</v>
       </c>
       <c r="H848" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr"/>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -29092,11 +29524,15 @@
         <v>-3208.14507409766</v>
       </c>
       <c r="H849" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr"/>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -29125,11 +29561,15 @@
         <v>-3282.75687409766</v>
       </c>
       <c r="H850" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr"/>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -29158,11 +29598,15 @@
         <v>-3266.801474097661</v>
       </c>
       <c r="H851" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr"/>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -29191,11 +29635,15 @@
         <v>-3266.801474097661</v>
       </c>
       <c r="H852" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -29224,11 +29672,15 @@
         <v>-3266.801474097661</v>
       </c>
       <c r="H853" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr"/>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -29257,11 +29709,15 @@
         <v>-3314.764474097661</v>
       </c>
       <c r="H854" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -29290,11 +29746,15 @@
         <v>-3315.171574097661</v>
       </c>
       <c r="H855" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -29323,11 +29783,15 @@
         <v>-3315.171574097661</v>
       </c>
       <c r="H856" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr"/>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -29356,11 +29820,15 @@
         <v>-3315.031974097661</v>
       </c>
       <c r="H857" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr"/>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -29389,11 +29857,15 @@
         <v>-3315.031974097661</v>
       </c>
       <c r="H858" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr"/>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -29422,11 +29894,15 @@
         <v>-3315.031974097661</v>
       </c>
       <c r="H859" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr"/>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -29455,11 +29931,15 @@
         <v>-3426.253499784657</v>
       </c>
       <c r="H860" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr"/>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -29488,11 +29968,15 @@
         <v>-3425.580799784657</v>
       </c>
       <c r="H861" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr"/>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -29521,11 +30005,15 @@
         <v>-3458.161099784657</v>
       </c>
       <c r="H862" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr"/>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -29554,11 +30042,15 @@
         <v>-3454.329699784657</v>
       </c>
       <c r="H863" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr"/>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -29587,11 +30079,15 @@
         <v>-3454.016199784657</v>
       </c>
       <c r="H864" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr"/>
+      <c r="K864" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -29620,11 +30116,15 @@
         <v>-3454.016199784657</v>
       </c>
       <c r="H865" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr"/>
+      <c r="K865" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -29653,11 +30153,15 @@
         <v>-3454.016199784657</v>
       </c>
       <c r="H866" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr"/>
+      <c r="K866" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -29686,11 +30190,15 @@
         <v>-3454.016199784657</v>
       </c>
       <c r="H867" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr"/>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -29719,11 +30227,15 @@
         <v>-3454.016199784657</v>
       </c>
       <c r="H868" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr"/>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -29752,11 +30264,15 @@
         <v>-3454.016199784657</v>
       </c>
       <c r="H869" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr"/>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -29785,11 +30301,15 @@
         <v>-3454.016199784657</v>
       </c>
       <c r="H870" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr"/>
+      <c r="K870" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -29818,11 +30338,15 @@
         <v>-3454.016199784657</v>
       </c>
       <c r="H871" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr"/>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -29851,11 +30375,15 @@
         <v>-3454.246199784657</v>
       </c>
       <c r="H872" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr"/>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -29884,11 +30412,15 @@
         <v>-3481.236199784656</v>
       </c>
       <c r="H873" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr"/>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -29917,11 +30449,15 @@
         <v>-3453.722299784657</v>
       </c>
       <c r="H874" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr"/>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -29950,11 +30486,15 @@
         <v>-3460.122499784657</v>
       </c>
       <c r="H875" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr"/>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -29983,11 +30523,15 @@
         <v>-3460.122499784657</v>
       </c>
       <c r="H876" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr"/>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -30016,11 +30560,15 @@
         <v>-3444.961699784657</v>
       </c>
       <c r="H877" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr"/>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -30049,11 +30597,15 @@
         <v>-3444.961699784657</v>
       </c>
       <c r="H878" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr"/>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -30082,11 +30634,15 @@
         <v>-3444.961699784657</v>
       </c>
       <c r="H879" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr"/>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -30115,11 +30671,15 @@
         <v>-3533.641299784656</v>
       </c>
       <c r="H880" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr"/>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -30148,11 +30708,15 @@
         <v>-3529.641399784657</v>
       </c>
       <c r="H881" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr"/>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -30181,11 +30745,15 @@
         <v>-3529.641399784657</v>
       </c>
       <c r="H882" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr"/>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -30214,11 +30782,15 @@
         <v>-3528.443499784657</v>
       </c>
       <c r="H883" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr"/>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -30247,11 +30819,15 @@
         <v>-3611.636199784657</v>
       </c>
       <c r="H884" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr"/>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -30280,11 +30856,15 @@
         <v>-3611.636199784657</v>
       </c>
       <c r="H885" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr"/>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -30317,7 +30897,11 @@
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr"/>
+      <c r="K886" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -30346,11 +30930,15 @@
         <v>-3611.636199784657</v>
       </c>
       <c r="H887" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr"/>
+      <c r="K887" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -30379,11 +30967,15 @@
         <v>-3611.636199784657</v>
       </c>
       <c r="H888" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr"/>
+      <c r="K888" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -30416,7 +31008,11 @@
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr"/>
+      <c r="K889" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -30449,7 +31045,11 @@
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr"/>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -30482,7 +31082,11 @@
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr"/>
+      <c r="K891" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -30515,7 +31119,11 @@
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr"/>
+      <c r="K892" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -30548,7 +31156,11 @@
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr"/>
+      <c r="K893" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -30581,7 +31193,11 @@
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr"/>
+      <c r="K894" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -30614,7 +31230,11 @@
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr"/>
+      <c r="K895" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -30647,7 +31267,11 @@
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr"/>
+      <c r="K896" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -30680,7 +31304,11 @@
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr"/>
+      <c r="K897" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -30713,7 +31341,11 @@
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr"/>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -30746,7 +31378,11 @@
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr"/>
+      <c r="K899" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -30779,7 +31415,11 @@
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr"/>
+      <c r="K900" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -30812,7 +31452,11 @@
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr"/>
+      <c r="K901" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -30845,7 +31489,11 @@
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr"/>
+      <c r="K902" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -30874,15 +31522,13 @@
         <v>-3835.451099784656</v>
       </c>
       <c r="H903" t="n">
-        <v>1</v>
-      </c>
-      <c r="I903" t="n">
-        <v>161600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
       <c r="K903" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L903" t="n">
@@ -30913,11 +31559,9 @@
         <v>-3788.137499784656</v>
       </c>
       <c r="H904" t="n">
-        <v>1</v>
-      </c>
-      <c r="I904" t="n">
-        <v>161500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
       <c r="K904" t="inlineStr">
         <is>
@@ -30952,11 +31596,9 @@
         <v>-3792.337499784656</v>
       </c>
       <c r="H905" t="n">
-        <v>1</v>
-      </c>
-      <c r="I905" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
       <c r="K905" t="inlineStr">
         <is>
@@ -30991,11 +31633,9 @@
         <v>-3786.512099784656</v>
       </c>
       <c r="H906" t="n">
-        <v>1</v>
-      </c>
-      <c r="I906" t="n">
-        <v>161500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
       <c r="K906" t="inlineStr">
         <is>
@@ -31030,11 +31670,9 @@
         <v>-3786.512099784656</v>
       </c>
       <c r="H907" t="n">
-        <v>1</v>
-      </c>
-      <c r="I907" t="n">
-        <v>161600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
       <c r="K907" t="inlineStr">
         <is>
@@ -31069,11 +31707,9 @@
         <v>-3786.512099784656</v>
       </c>
       <c r="H908" t="n">
-        <v>1</v>
-      </c>
-      <c r="I908" t="n">
-        <v>161600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
       <c r="K908" t="inlineStr">
         <is>
@@ -31108,11 +31744,9 @@
         <v>-3786.512099784656</v>
       </c>
       <c r="H909" t="n">
-        <v>1</v>
-      </c>
-      <c r="I909" t="n">
-        <v>161600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
       <c r="K909" t="inlineStr">
         <is>
@@ -31147,11 +31781,9 @@
         <v>-3786.512099784656</v>
       </c>
       <c r="H910" t="n">
-        <v>1</v>
-      </c>
-      <c r="I910" t="n">
-        <v>161600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
       <c r="K910" t="inlineStr">
         <is>
@@ -31186,11 +31818,9 @@
         <v>-3779.824299784656</v>
       </c>
       <c r="H911" t="n">
-        <v>1</v>
-      </c>
-      <c r="I911" t="n">
-        <v>161600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
       <c r="K911" t="inlineStr">
         <is>
@@ -31225,11 +31855,9 @@
         <v>-3779.824299784656</v>
       </c>
       <c r="H912" t="n">
-        <v>1</v>
-      </c>
-      <c r="I912" t="n">
-        <v>161800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
       <c r="K912" t="inlineStr">
         <is>
@@ -31264,11 +31892,9 @@
         <v>-3825.826299784656</v>
       </c>
       <c r="H913" t="n">
-        <v>1</v>
-      </c>
-      <c r="I913" t="n">
-        <v>161800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
       <c r="K913" t="inlineStr">
         <is>
@@ -31303,11 +31929,9 @@
         <v>-3837.693099784656</v>
       </c>
       <c r="H914" t="n">
-        <v>1</v>
-      </c>
-      <c r="I914" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
       <c r="K914" t="inlineStr">
         <is>
@@ -31342,11 +31966,9 @@
         <v>-3828.569699784656</v>
       </c>
       <c r="H915" t="n">
-        <v>1</v>
-      </c>
-      <c r="I915" t="n">
-        <v>161600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
       <c r="K915" t="inlineStr">
         <is>
@@ -31381,11 +32003,9 @@
         <v>-3840.035099784656</v>
       </c>
       <c r="H916" t="n">
-        <v>1</v>
-      </c>
-      <c r="I916" t="n">
-        <v>161700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
       <c r="K916" t="inlineStr">
         <is>
@@ -31420,11 +32040,9 @@
         <v>-3840.035099784656</v>
       </c>
       <c r="H917" t="n">
-        <v>1</v>
-      </c>
-      <c r="I917" t="n">
-        <v>161600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
       <c r="K917" t="inlineStr">
         <is>
@@ -31459,11 +32077,9 @@
         <v>-3839.370899784656</v>
       </c>
       <c r="H918" t="n">
-        <v>1</v>
-      </c>
-      <c r="I918" t="n">
-        <v>161600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
       <c r="K918" t="inlineStr">
         <is>
@@ -32867,16 +33483,18 @@
         <v>-3831.366646760649</v>
       </c>
       <c r="H956" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
       <c r="K956" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L956" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L956" t="n">
+        <v>1</v>
+      </c>
       <c r="M956" t="inlineStr"/>
     </row>
     <row r="957">
@@ -32902,11 +33520,15 @@
         <v>-3929.001946760648</v>
       </c>
       <c r="H957" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
-      <c r="K957" t="inlineStr"/>
+      <c r="K957" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L957" t="n">
         <v>1</v>
       </c>
@@ -32935,11 +33557,15 @@
         <v>-3927.086146760648</v>
       </c>
       <c r="H958" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
-      <c r="K958" t="inlineStr"/>
+      <c r="K958" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L958" t="n">
         <v>1</v>
       </c>
@@ -32972,7 +33598,11 @@
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
-      <c r="K959" t="inlineStr"/>
+      <c r="K959" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L959" t="n">
         <v>1</v>
       </c>
@@ -33005,7 +33635,11 @@
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
-      <c r="K960" t="inlineStr"/>
+      <c r="K960" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L960" t="n">
         <v>1</v>
       </c>
@@ -33038,7 +33672,11 @@
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
-      <c r="K961" t="inlineStr"/>
+      <c r="K961" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L961" t="n">
         <v>1</v>
       </c>
@@ -33067,11 +33705,15 @@
         <v>-3921.393846760649</v>
       </c>
       <c r="H962" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
-      <c r="K962" t="inlineStr"/>
+      <c r="K962" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L962" t="n">
         <v>1</v>
       </c>
@@ -33100,11 +33742,15 @@
         <v>-3920.095324470008</v>
       </c>
       <c r="H963" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
-      <c r="K963" t="inlineStr"/>
+      <c r="K963" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L963" t="n">
         <v>1</v>
       </c>
@@ -33133,11 +33779,15 @@
         <v>-3920.193824470008</v>
       </c>
       <c r="H964" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
-      <c r="K964" t="inlineStr"/>
+      <c r="K964" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L964" t="n">
         <v>1</v>
       </c>
@@ -33166,11 +33816,15 @@
         <v>-3914.829024470008</v>
       </c>
       <c r="H965" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
-      <c r="K965" t="inlineStr"/>
+      <c r="K965" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L965" t="n">
         <v>1</v>
       </c>
@@ -33199,11 +33853,15 @@
         <v>-3914.829024470008</v>
       </c>
       <c r="H966" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
-      <c r="K966" t="inlineStr"/>
+      <c r="K966" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L966" t="n">
         <v>1</v>
       </c>
@@ -33232,11 +33890,15 @@
         <v>-3914.839824470008</v>
       </c>
       <c r="H967" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
-      <c r="K967" t="inlineStr"/>
+      <c r="K967" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L967" t="n">
         <v>1</v>
       </c>
@@ -33265,11 +33927,15 @@
         <v>-3913.818624470008</v>
       </c>
       <c r="H968" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
-      <c r="K968" t="inlineStr"/>
+      <c r="K968" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L968" t="n">
         <v>1</v>
       </c>
@@ -33298,11 +33964,15 @@
         <v>-3915.749624470008</v>
       </c>
       <c r="H969" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
-      <c r="K969" t="inlineStr"/>
+      <c r="K969" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L969" t="n">
         <v>1</v>
       </c>
@@ -33331,11 +34001,15 @@
         <v>-3920.214924470008</v>
       </c>
       <c r="H970" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
-      <c r="K970" t="inlineStr"/>
+      <c r="K970" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L970" t="n">
         <v>1</v>
       </c>
@@ -33364,11 +34038,15 @@
         <v>-3920.214924470008</v>
       </c>
       <c r="H971" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
-      <c r="K971" t="inlineStr"/>
+      <c r="K971" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L971" t="n">
         <v>1</v>
       </c>
@@ -33397,11 +34075,15 @@
         <v>-3890.214924470008</v>
       </c>
       <c r="H972" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
-      <c r="K972" t="inlineStr"/>
+      <c r="K972" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L972" t="n">
         <v>1</v>
       </c>
@@ -33434,7 +34116,11 @@
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
-      <c r="K973" t="inlineStr"/>
+      <c r="K973" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L973" t="n">
         <v>1</v>
       </c>
@@ -33467,7 +34153,11 @@
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
-      <c r="K974" t="inlineStr"/>
+      <c r="K974" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L974" t="n">
         <v>1</v>
       </c>
@@ -33500,7 +34190,11 @@
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
-      <c r="K975" t="inlineStr"/>
+      <c r="K975" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L975" t="n">
         <v>1</v>
       </c>
@@ -33533,7 +34227,11 @@
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
-      <c r="K976" t="inlineStr"/>
+      <c r="K976" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L976" t="n">
         <v>1</v>
       </c>
@@ -33566,7 +34264,11 @@
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
-      <c r="K977" t="inlineStr"/>
+      <c r="K977" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L977" t="n">
         <v>1</v>
       </c>
@@ -33599,7 +34301,11 @@
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
-      <c r="K978" t="inlineStr"/>
+      <c r="K978" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L978" t="n">
         <v>1</v>
       </c>
@@ -33632,7 +34338,11 @@
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
-      <c r="K979" t="inlineStr"/>
+      <c r="K979" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L979" t="n">
         <v>1</v>
       </c>
@@ -33665,7 +34375,11 @@
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
-      <c r="K980" t="inlineStr"/>
+      <c r="K980" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L980" t="n">
         <v>1</v>
       </c>
@@ -33698,7 +34412,11 @@
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
-      <c r="K981" t="inlineStr"/>
+      <c r="K981" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L981" t="n">
         <v>1</v>
       </c>
@@ -33731,7 +34449,11 @@
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
-      <c r="K982" t="inlineStr"/>
+      <c r="K982" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L982" t="n">
         <v>1</v>
       </c>
@@ -33764,7 +34486,11 @@
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
-      <c r="K983" t="inlineStr"/>
+      <c r="K983" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L983" t="n">
         <v>1</v>
       </c>
@@ -33797,7 +34523,11 @@
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
-      <c r="K984" t="inlineStr"/>
+      <c r="K984" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L984" t="n">
         <v>1</v>
       </c>
@@ -33830,7 +34560,11 @@
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
-      <c r="K985" t="inlineStr"/>
+      <c r="K985" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -33863,7 +34597,11 @@
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
-      <c r="K986" t="inlineStr"/>
+      <c r="K986" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L986" t="n">
         <v>1</v>
       </c>
@@ -33896,7 +34634,11 @@
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
-      <c r="K987" t="inlineStr"/>
+      <c r="K987" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L987" t="n">
         <v>1</v>
       </c>
@@ -33929,7 +34671,11 @@
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
-      <c r="K988" t="inlineStr"/>
+      <c r="K988" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L988" t="n">
         <v>1</v>
       </c>
@@ -33962,7 +34708,11 @@
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr"/>
+      <c r="K989" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L989" t="n">
         <v>1</v>
       </c>
@@ -33995,7 +34745,11 @@
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr"/>
+      <c r="K990" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L990" t="n">
         <v>1</v>
       </c>
@@ -34028,7 +34782,11 @@
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr"/>
+      <c r="K991" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L991" t="n">
         <v>1</v>
       </c>
@@ -34061,7 +34819,11 @@
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
-      <c r="K992" t="inlineStr"/>
+      <c r="K992" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L992" t="n">
         <v>1</v>
       </c>
@@ -34094,7 +34856,11 @@
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
-      <c r="K993" t="inlineStr"/>
+      <c r="K993" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L993" t="n">
         <v>1</v>
       </c>
@@ -34127,7 +34893,11 @@
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
-      <c r="K994" t="inlineStr"/>
+      <c r="K994" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L994" t="n">
         <v>1</v>
       </c>
@@ -34160,7 +34930,11 @@
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr"/>
+      <c r="K995" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L995" t="n">
         <v>1</v>
       </c>
@@ -34193,7 +34967,11 @@
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr"/>
+      <c r="K996" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L996" t="n">
         <v>1</v>
       </c>
@@ -34226,7 +35004,11 @@
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr"/>
+      <c r="K997" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L997" t="n">
         <v>1</v>
       </c>
@@ -34259,7 +35041,11 @@
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr"/>
+      <c r="K998" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L998" t="n">
         <v>1</v>
       </c>
@@ -34292,7 +35078,11 @@
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
-      <c r="K999" t="inlineStr"/>
+      <c r="K999" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L999" t="n">
         <v>1</v>
       </c>
@@ -34325,7 +35115,11 @@
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr"/>
+      <c r="K1000" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1000" t="n">
         <v>1</v>
       </c>
@@ -34358,7 +35152,11 @@
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="inlineStr"/>
+      <c r="K1001" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1001" t="n">
         <v>1</v>
       </c>
@@ -34391,7 +35189,11 @@
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
-      <c r="K1002" t="inlineStr"/>
+      <c r="K1002" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1002" t="n">
         <v>1</v>
       </c>
